--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="267">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,29 +727,369 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fr_web_tutor</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr_web_tutor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏的类型 家教，任务，课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户家教成就信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在生活中获得的成就，可以是竞赛得奖，锦旗，项目成功经验等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目大类 一年级二年级计算机制图音乐等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目具体分类一年级数学语文，计算机JAVA HTML，音乐 声乐 钢琴等细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户家教可教科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户都可以进行什么专业的授课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师唯一编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PresentState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyMajor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkingYears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放一些混杂的基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_certificate</t>
+  </si>
+  <si>
+    <t>CertificateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户成为家教之后会拥有和用户ID相似的教师ID，生成方式不同，首字母不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.在校大学生 1.在职工作 2.自由职业者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业或者在读院校的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习或者工作的专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.民办 1.公办 2.名牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职公司的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.私企 1.国企 2.名牌企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司对应业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司业务类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司经营的业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司经营的业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作的最高年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司中的职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己的一些介绍，家教的介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家教介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为家教后的介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型，有表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些表可能会合成一张表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书都是有编号的，这个编号是证明证书的一个凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得该证书的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统认证的状态是否已经认证，0.未认证 1.已认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统认证通过的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_achievement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -787,7 +1127,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +1161,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,28 +1245,28 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,6 +1276,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1013,7 +1377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,9 +1409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,6 +1444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,22 +1620,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -1284,483 +1651,477 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15" s="10" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="3" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="10"/>
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1774,13 +2135,13 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1794,12 +2155,14 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1812,851 +2175,1476 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="12"/>
+      <c r="B34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="12"/>
+      <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="12"/>
+      <c r="B37" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="12"/>
+      <c r="B38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="12"/>
+      <c r="B42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="12"/>
+      <c r="B43" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="12"/>
+      <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="12"/>
+      <c r="B45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="42" spans="1:14" s="6" customFormat="1">
-      <c r="A42" s="6" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1">
+      <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G49" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1">
-      <c r="A43" s="13" t="s">
+    <row r="50" spans="1:7" s="2" customFormat="1">
+      <c r="A50" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D50" s="2">
         <v>32</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="7" customFormat="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="7" t="s">
+    <row r="51" spans="1:7" s="5" customFormat="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D51" s="5">
         <v>16</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F51" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G51" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="7" customFormat="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="7" t="s">
+    <row r="52" spans="1:7" s="5" customFormat="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D52" s="5">
         <v>2</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G52" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="7" customFormat="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="7" t="s">
+    <row r="53" spans="1:7" s="5" customFormat="1">
+      <c r="A53" s="14"/>
+      <c r="B53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D53" s="5">
         <v>2</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G53" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="7" customFormat="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="7" t="s">
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="14"/>
+      <c r="B54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D54" s="5">
         <v>10</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G54" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="7" customFormat="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="7" t="s">
+    <row r="55" spans="1:7" s="5" customFormat="1">
+      <c r="A55" s="14"/>
+      <c r="B55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D55" s="5">
         <v>30</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G55" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="7" t="s">
+    <row r="56" spans="1:7" s="5" customFormat="1">
+      <c r="A56" s="14"/>
+      <c r="B56" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D56" s="5">
         <v>18</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F56" s="5">
         <v>1</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G56" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="7" t="s">
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="A57" s="14"/>
+      <c r="B57" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D57" s="5">
         <v>50</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F57" s="5">
         <v>1</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G57" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="7" t="s">
+    <row r="58" spans="1:7" s="5" customFormat="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D58" s="5">
         <v>255</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G58" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="7" t="s">
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="14"/>
+      <c r="B59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D59" s="5">
         <v>255</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G59" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="7" t="s">
+    <row r="60" spans="1:7" s="5" customFormat="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D60" s="5">
         <v>20</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F60" s="5">
         <v>1</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G60" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1">
-      <c r="A54" s="14"/>
-      <c r="B54" s="7" t="s">
+    <row r="61" spans="1:7" s="5" customFormat="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D61" s="5">
         <v>6</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G61" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="7" t="s">
+    <row r="62" spans="1:7" s="5" customFormat="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D62" s="5">
         <v>2</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G62" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="7" t="s">
+    <row r="63" spans="1:7" s="5" customFormat="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D63" s="5">
         <v>2</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G63" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="7" t="s">
+    <row r="64" spans="1:7" s="5" customFormat="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D64" s="5">
         <v>255</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G64" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="7" t="s">
+    <row r="65" spans="1:7" s="5" customFormat="1">
+      <c r="A65" s="14"/>
+      <c r="B65" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G65" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="7" t="s">
+    <row r="66" spans="1:7" s="5" customFormat="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D66" s="5">
         <v>2</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G66" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="7" t="s">
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D67" s="5">
         <v>255</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E67" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G67" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="7" t="s">
+    <row r="68" spans="1:7" s="5" customFormat="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D68" s="5">
         <v>2</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E68" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G68" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="7" t="s">
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D69" s="5">
         <v>255</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F69" s="5">
         <v>1</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G69" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="7" t="s">
+    <row r="70" spans="1:7" s="5" customFormat="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D70" s="5">
         <v>30</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G70" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="7" t="s">
+    <row r="71" spans="1:7" s="5" customFormat="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D71" s="5">
         <v>2</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G71" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="7" t="s">
+    <row r="72" spans="1:7" s="5" customFormat="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D72" s="5">
         <v>2</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G72" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="7" t="s">
+    <row r="73" spans="1:7" s="5" customFormat="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D73" s="5">
         <v>30</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G73" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="7" t="s">
+    <row r="74" spans="1:7" s="5" customFormat="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D74" s="5">
         <v>6</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="7" t="s">
+    <row r="75" spans="1:7" s="5" customFormat="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D75" s="5">
         <v>2</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G75" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="7" t="s">
+    <row r="76" spans="1:7" s="5" customFormat="1">
+      <c r="A76" s="14"/>
+      <c r="B76" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D76" s="5">
         <v>6</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="7" t="s">
+    <row r="77" spans="1:7" s="5" customFormat="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D77" s="5">
         <v>30</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G77" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="7" t="s">
+    <row r="78" spans="1:7" s="5" customFormat="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="5">
+        <v>32</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1">
+      <c r="A79" s="14"/>
+      <c r="B79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="5">
+        <v>32</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1">
+      <c r="A80" s="14"/>
+      <c r="B80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="5">
+        <v>32</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="5">
+        <v>32</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="14"/>
+      <c r="B82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="5">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="5">
+        <v>32</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="14"/>
+      <c r="B84" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="5">
+        <v>32</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="14"/>
+      <c r="B85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="5">
+        <v>32</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="14"/>
+      <c r="B86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="14"/>
+      <c r="B87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="14"/>
+      <c r="B88" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="5">
+        <v>32</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="14"/>
+      <c r="B89" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="5">
+        <v>255</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1">
+      <c r="A90" s="14"/>
+      <c r="B90" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="5">
+        <v>255</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1">
+      <c r="A91" s="14"/>
+      <c r="B91" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D91" s="5">
         <v>2</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E91" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G91" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="7" t="s">
+    <row r="92" spans="1:7" s="5" customFormat="1">
+      <c r="A92" s="14"/>
+      <c r="B92" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D92" s="5">
         <v>32</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E92" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="7" t="s">
+    <row r="93" spans="1:7" s="5" customFormat="1">
+      <c r="A93" s="14"/>
+      <c r="B93" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D93" s="5">
         <v>6</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E93" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="7" t="s">
+    <row r="94" spans="1:7" s="5" customFormat="1">
+      <c r="A94" s="14"/>
+      <c r="B94" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D94" s="5">
         <v>32</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E94" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1">
-      <c r="A75" s="15"/>
-      <c r="B75" s="7" t="s">
+    <row r="95" spans="1:7" s="5" customFormat="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C95" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D95" s="5">
         <v>6</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E95" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1">
-      <c r="A79" s="6" t="s">
+    <row r="99" spans="1:7" s="4" customFormat="1">
+      <c r="A99" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B99" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C99" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F99" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G99" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="4" t="s">
+    <row r="100" spans="1:7">
+      <c r="A100" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
-        <v>181</v>
+      <c r="C100" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="5">
+        <v>32</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="19"/>
+      <c r="B101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="5">
+        <v>32</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="19"/>
+      <c r="B102" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="5">
+        <v>50</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="19"/>
+      <c r="B103" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="5">
+        <v>32</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="19"/>
+      <c r="B104" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="5">
+        <v>50</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="19"/>
+      <c r="B105" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="5">
+        <v>6</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="19"/>
+      <c r="B106" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="5">
+        <v>32</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="19"/>
+      <c r="B107" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D107" s="5">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="19"/>
+      <c r="B108" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="19"/>
+      <c r="B109" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="5">
+        <v>32</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="19"/>
+      <c r="B110" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" s="5">
+        <v>6</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="19"/>
+      <c r="B111" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="5">
+        <v>32</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="20"/>
+      <c r="B112" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="5">
+        <v>6</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="116" spans="1:7" s="4" customFormat="1">
+      <c r="A116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A43:A75"/>
+  <mergeCells count="6">
+    <mergeCell ref="A100:A112"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A50:A95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="343">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户粉丝表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户的粉丝表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户关注的人表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -902,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_web_certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,13 +1071,338 @@
   </si>
   <si>
     <t>fr_web_achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievementTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievementText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievementDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就获得日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_userinfo
+用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_certificate
+获得证书信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_achievement
+获得成就信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectPid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_subject
+教师可教学科表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类的学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科细分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Favourite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Favourite
+用户喜好表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FavouriteQuestionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FansId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_relation
+用户关注关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的互相关注关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollPKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Collection
+用户收藏表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr:前段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_loginLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Brecords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordsTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">date	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览内容主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Brecords
+浏览记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_loginLog
+登录记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态表-最后决定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1245,7 +1558,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1255,6 +1568,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,26 +1593,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1377,7 +1699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,10 +1731,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1444,7 +1765,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1620,11 +1940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1639,6 +1959,25 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
@@ -1651,17 +1990,17 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1674,28 +2013,28 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="17" customFormat="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:14" s="10" customFormat="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1709,15 +2048,15 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1731,13 +2070,15 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1751,13 +2092,15 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="9"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1771,13 +2114,15 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="9"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1791,15 +2136,17 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1810,34 +2157,28 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:14" s="10" customFormat="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="C12" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="9"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1851,13 +2192,15 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1871,13 +2214,15 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="9"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1891,13 +2236,15 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="9"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1911,13 +2258,13 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1931,15 +2278,15 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
+      <c r="A18" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1953,13 +2300,13 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1973,13 +2320,13 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="10"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1993,13 +2340,13 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2013,13 +2360,13 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2033,13 +2380,13 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="10"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2053,13 +2400,13 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2073,13 +2420,13 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2093,13 +2440,13 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="10"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2113,15 +2460,15 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="11" t="s">
-        <v>21</v>
+      <c r="A27" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2135,13 +2482,13 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="11"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2155,13 +2502,13 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="11"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2175,13 +2522,13 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="11"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2195,9 +2542,9 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="11"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
@@ -2213,15 +2560,15 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="12" t="s">
-        <v>33</v>
+      <c r="A32" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2235,13 +2582,13 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2255,13 +2602,13 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="12"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2275,13 +2622,13 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="12"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2295,13 +2642,13 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="12"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2315,13 +2662,13 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="12"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2335,13 +2682,13 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="12"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2355,13 +2702,13 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="12"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2375,13 +2722,13 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="12"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2395,13 +2742,13 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="12"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2415,13 +2762,13 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="12"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2435,13 +2782,13 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="12"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2455,13 +2802,13 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="12"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2475,13 +2822,13 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="12"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2495,1156 +2842,2854 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="B46" s="21" t="s">
-        <v>261</v>
+      <c r="B46" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="4" customFormat="1">
       <c r="A49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1">
-      <c r="A50" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2">
         <v>32</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="5">
         <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1">
-      <c r="A53" s="14"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="14"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="5">
         <v>10</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="14"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D55" s="5">
         <v>30</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="14"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D56" s="5">
         <v>18</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D57" s="5">
         <v>50</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1">
-      <c r="A58" s="14"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58" s="5">
         <v>255</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="5">
         <v>255</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="14"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="5">
         <v>20</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D61" s="5">
         <v>6</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1">
-      <c r="A63" s="14"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="5">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="14"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64" s="5">
         <v>255</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1">
-      <c r="A65" s="14"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="A67" s="14"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D67" s="5">
         <v>255</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1">
-      <c r="A68" s="14"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="A69" s="14"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="5">
         <v>255</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1">
-      <c r="A70" s="14"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="5">
         <v>30</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="A71" s="14"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1">
-      <c r="A72" s="14"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="5">
         <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="A73" s="14"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="5">
         <v>30</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1">
-      <c r="A74" s="14"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" s="5">
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="A75" s="14"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1">
-      <c r="A76" s="14"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D76" s="5">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1">
-      <c r="A77" s="14"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D77" s="5">
         <v>30</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1">
-      <c r="A78" s="14"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" s="5">
         <v>32</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1">
+      <c r="A79" s="21"/>
+      <c r="B79" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="5">
+        <v>32</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1">
+      <c r="A80" s="21"/>
+      <c r="B80" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="5">
+        <v>32</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="5" customFormat="1">
-      <c r="A79" s="14"/>
-      <c r="B79" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="5">
-        <v>32</v>
-      </c>
-      <c r="E79" s="5" t="s">
+    <row r="81" spans="1:7" s="5" customFormat="1">
+      <c r="A81" s="21"/>
+      <c r="B81" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="5">
+        <v>32</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="5" t="s">
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="21"/>
+      <c r="B82" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="5">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="5" customFormat="1">
-      <c r="A80" s="14"/>
-      <c r="B80" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="5" t="s">
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="21"/>
+      <c r="B83" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="5">
-        <v>32</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="D83" s="5">
+        <v>32</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1">
-      <c r="A81" s="14"/>
-      <c r="B81" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="5" t="s">
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="21"/>
+      <c r="B84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="5">
-        <v>32</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="D84" s="5">
+        <v>32</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="5" customFormat="1">
-      <c r="A82" s="14"/>
-      <c r="B82" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="5">
-        <v>32</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G82" s="5" t="s">
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="21"/>
+      <c r="B85" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="5">
+        <v>32</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1">
-      <c r="A83" s="14"/>
-      <c r="B83" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="G85" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="21"/>
+      <c r="B86" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="5">
-        <v>32</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="5" customFormat="1">
-      <c r="A84" s="14"/>
-      <c r="B84" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="21"/>
+      <c r="B87" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D84" s="5">
-        <v>32</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="A85" s="14"/>
-      <c r="B85" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="5">
-        <v>32</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="5" customFormat="1">
-      <c r="A86" s="14"/>
-      <c r="B86" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D86" s="5">
-        <v>32</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
-      <c r="A87" s="14"/>
-      <c r="B87" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="D87" s="5">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="21"/>
+      <c r="B88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="5">
+        <v>32</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="5" customFormat="1">
-      <c r="A88" s="14"/>
-      <c r="B88" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="5">
-        <v>32</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="G88" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="21"/>
+      <c r="B89" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" s="5" customFormat="1">
-      <c r="A89" s="14"/>
-      <c r="B89" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="5">
         <v>255</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="5" customFormat="1">
-      <c r="A90" s="14"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D90" s="5">
         <v>255</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="5" customFormat="1">
-      <c r="A91" s="14"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1">
-      <c r="A92" s="14"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="5">
         <v>32</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1">
-      <c r="A93" s="14"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="5">
         <v>6</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1">
-      <c r="A94" s="14"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D94" s="5">
         <v>32</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1">
-      <c r="A95" s="15"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D95" s="5">
         <v>6</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="22"/>
+      <c r="B96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="5">
+        <v>255</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="18" t="s">
-        <v>221</v>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A100" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D100" s="5">
         <v>32</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="19"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D101" s="5">
         <v>32</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="19"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D102" s="5">
         <v>50</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="19"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103" s="5">
         <v>32</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="19"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D104" s="5">
         <v>50</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="19"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D105" s="5">
         <v>6</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="19"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D106" s="5">
         <v>32</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="19"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D107" s="5">
         <v>6</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="19"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D108" s="5">
         <v>2</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="19"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D109" s="5">
         <v>32</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="19"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D110" s="5">
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="19"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D111" s="5">
         <v>32</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="20"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D112" s="5">
         <v>6</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="24"/>
+      <c r="B113" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" s="5">
+        <v>255</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="116" spans="1:7" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D116" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A117" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="5">
+        <v>32</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="23"/>
+      <c r="B118" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="5">
+        <v>32</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="23"/>
+      <c r="B119" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="5">
+        <v>30</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="23"/>
+      <c r="B120" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="5">
+        <v>255</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="23"/>
+      <c r="B121" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="5">
+        <v>6</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="23"/>
+      <c r="B122" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="23"/>
+      <c r="B123" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="5">
+        <v>32</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="23"/>
+      <c r="B124" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="D124" s="5">
+        <v>6</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="23"/>
+      <c r="B125" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="5">
+        <v>32</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="23"/>
+      <c r="B126" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="5">
+        <v>6</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="24"/>
+      <c r="B127" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="5">
+        <v>255</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="7" t="s">
-        <v>266</v>
-      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="5">
+        <v>32</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="23"/>
+      <c r="B132" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="5">
+        <v>32</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="23"/>
+      <c r="B133" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="5">
+        <v>32</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="23"/>
+      <c r="B134" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="5">
+        <v>32</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="23"/>
+      <c r="B135" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="23"/>
+      <c r="B136" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D136" s="5">
+        <v>32</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="23"/>
+      <c r="B137" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="5">
+        <v>6</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="23"/>
+      <c r="B138" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="5">
+        <v>32</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="23"/>
+      <c r="B139" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" s="5">
+        <v>6</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="24"/>
+      <c r="B140" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="5">
+        <v>255</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="143" spans="1:7" s="4" customFormat="1">
+      <c r="A143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="5">
+        <v>32</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="13"/>
+      <c r="B145" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="5">
+        <v>32</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="13"/>
+      <c r="B146" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="5">
+        <v>32</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="13"/>
+      <c r="B147" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D147" s="5">
+        <v>32</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="13"/>
+      <c r="B148" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" s="5">
+        <v>2</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="13"/>
+      <c r="B149" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="5">
+        <v>32</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="13"/>
+      <c r="B150" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" s="5">
+        <v>6</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="13"/>
+      <c r="B151" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D151" s="5">
+        <v>32</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="13"/>
+      <c r="B152" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D152" s="5">
+        <v>6</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="14"/>
+      <c r="B153" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D153" s="5">
+        <v>255</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="156" spans="1:7" s="4" customFormat="1">
+      <c r="A156" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" s="5">
+        <v>32</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="13"/>
+      <c r="B158" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="5">
+        <v>32</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="13"/>
+      <c r="B159" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="5">
+        <v>32</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="13"/>
+      <c r="B160" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="13"/>
+      <c r="B161" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="5">
+        <v>32</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="13"/>
+      <c r="B162" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="5">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="13"/>
+      <c r="B163" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="5">
+        <v>32</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="13"/>
+      <c r="B164" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="5">
+        <v>6</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="14"/>
+      <c r="B165" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D165" s="5">
+        <v>255</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="168" spans="1:7" s="4" customFormat="1">
+      <c r="A168" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D169" s="5">
+        <v>32</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="13"/>
+      <c r="B170" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D170" s="5">
+        <v>32</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="13"/>
+      <c r="B171" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D171" s="5">
+        <v>32</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="13"/>
+      <c r="B172" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D172" s="5">
+        <v>32</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="13"/>
+      <c r="B173" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="13"/>
+      <c r="B174" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D174" s="5">
+        <v>32</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="13"/>
+      <c r="B175" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="5">
+        <v>6</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="13"/>
+      <c r="B176" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D176" s="5">
+        <v>32</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="13"/>
+      <c r="B177" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" s="5">
+        <v>6</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="14"/>
+      <c r="B178" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D178" s="5">
+        <v>255</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="181" spans="1:7" s="4" customFormat="1">
+      <c r="A181" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D182" s="5">
+        <v>32</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="13"/>
+      <c r="B183" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D183" s="5">
+        <v>32</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="13"/>
+      <c r="B184" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D184" s="5">
+        <v>32</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="13"/>
+      <c r="B185" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D185" s="5">
+        <v>32</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="13"/>
+      <c r="B186" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D186" s="5">
+        <v>32</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="13"/>
+      <c r="B187" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D187" s="5">
+        <v>255</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="13"/>
+      <c r="B188" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D188" s="5">
+        <v>18</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="13"/>
+      <c r="B189" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D189" s="5">
+        <v>30</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="13"/>
+      <c r="B190" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="13"/>
+      <c r="B191" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D191" s="5">
+        <v>32</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="13"/>
+      <c r="B192" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="5">
+        <v>6</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="13"/>
+      <c r="B193" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D193" s="5">
+        <v>32</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="13"/>
+      <c r="B194" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" s="5">
+        <v>6</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="14"/>
+      <c r="B195" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D195" s="5">
+        <v>255</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+    </row>
+    <row r="198" spans="1:7" s="4" customFormat="1">
+      <c r="A198" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D199" s="5">
+        <v>32</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="13"/>
+      <c r="B200" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D200" s="5">
+        <v>32</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="13"/>
+      <c r="B201" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D201" s="5">
+        <v>30</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="13"/>
+      <c r="B202" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D202" s="5">
+        <v>6</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="13"/>
+      <c r="B203" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D203" s="5">
+        <v>32</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="13"/>
+      <c r="B204" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D204" s="5">
+        <v>2</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="13"/>
+      <c r="B205" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D205" s="5">
+        <v>32</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="13"/>
+      <c r="B206" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D206" s="5">
+        <v>6</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="13"/>
+      <c r="B207" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D207" s="5">
+        <v>32</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="13"/>
+      <c r="B208" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="5">
+        <v>6</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="14"/>
+      <c r="B209" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D209" s="5">
+        <v>255</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+    </row>
+    <row r="212" spans="1:7" s="4" customFormat="1">
+      <c r="A212" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D213" s="5">
+        <v>32</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="13"/>
+      <c r="B214" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D214" s="5">
+        <v>32</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="13"/>
+      <c r="B215" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D215" s="5">
+        <v>32</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="13"/>
+      <c r="B216" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D216" s="5">
+        <v>32</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="13"/>
+      <c r="B217" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D217" s="5">
+        <v>6</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="13"/>
+      <c r="B218" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D218" s="5">
+        <v>2</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="13"/>
+      <c r="B219" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D219" s="5">
+        <v>32</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="13"/>
+      <c r="B220" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D220" s="5">
+        <v>6</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="13"/>
+      <c r="B221" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D221" s="5">
+        <v>32</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="13"/>
+      <c r="B222" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D222" s="5">
+        <v>6</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="14"/>
+      <c r="B223" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D223" s="5">
+        <v>255</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A100:A112"/>
+  <mergeCells count="14">
+    <mergeCell ref="A213:A223"/>
+    <mergeCell ref="A144:A153"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="A182:A195"/>
+    <mergeCell ref="A199:A209"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="A50:A96"/>
+    <mergeCell ref="A100:A113"/>
+    <mergeCell ref="A117:A127"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A45"/>
-    <mergeCell ref="A50:A95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$96</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="392">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,13 +1396,209 @@
   </si>
   <si>
     <t>状态表-最后决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderSubjectPid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderSubjectid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccidentTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnswerOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcceptTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务大类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务子类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EstimatePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布前预计报酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认关系后实际报酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurplusPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关系支付后剩余报酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务取消时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接受者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.紧急 1.非紧急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.任务发布，等待领取 1.任务已领取，正在解决 2.解决完成，等待支付 3.支付完成，待评价 4.评价完成，任务结束 5.发生意外 6.任务取消 7.任务继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的描述任务主要内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细描述任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分项表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分解项，并且表明每项的价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问人任务发布的时候估算一个价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方协商后，准确的价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务取消，产生有价值的问题解决办法，支付部分金额后剩下的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生意外的类型 0.问题无法解决 1.问题超时 2.问题比预期困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timelimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认解决时间为2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.取消任务 1.继续任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外处理结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1572,13 +1768,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,24 +1805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1699,7 +1895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1731,9 +1927,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,6 +1962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1940,11 +2138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N223"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D229" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1990,7 +2188,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2014,7 +2212,7 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="9" t="s">
         <v>92</v>
       </c>
@@ -2026,7 +2224,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
@@ -2048,7 +2246,7 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="15"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>180</v>
       </c>
@@ -2070,7 +2268,7 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>186</v>
       </c>
@@ -2092,7 +2290,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="15"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2114,7 +2312,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>302</v>
       </c>
@@ -2136,7 +2334,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
@@ -2158,7 +2356,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2170,7 +2368,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="15"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2390,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2412,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="15"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
@@ -2236,7 +2434,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2456,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="15"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2278,13 +2476,15 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
@@ -2300,13 +2500,13 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="16"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2320,13 +2520,13 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2340,13 +2540,13 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="16"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2360,13 +2560,13 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="16"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2380,13 +2580,13 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="16"/>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2400,13 +2600,13 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="16"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2420,13 +2620,13 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="16"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2440,13 +2640,13 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="16"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2460,35 +2660,35 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="17"/>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2502,13 +2702,13 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="17"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2522,13 +2722,13 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="17"/>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2542,12 +2742,14 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2560,35 +2762,33 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="18"/>
-      <c r="B33" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2602,13 +2802,13 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="18"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2622,13 +2822,13 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="18"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2642,13 +2842,13 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="18"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="5" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2662,13 +2862,13 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="18"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2682,13 +2882,13 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="18"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2702,13 +2902,13 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="18"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="5" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2722,13 +2922,13 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="18"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2742,13 +2942,13 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="18"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="5" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2762,13 +2962,13 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="18"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2782,13 +2982,13 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="18"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="5" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2802,13 +3002,13 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="18"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="5" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2822,13 +3022,13 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2842,96 +3042,98 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:7" s="4" customFormat="1">
+      <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="2">
+        <v>32</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="1:7" s="5" customFormat="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="5">
         <v>16</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="5">
         <v>1</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="1:7" s="5" customFormat="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="5" customFormat="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>137</v>
@@ -2940,112 +3142,112 @@
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:7" s="5" customFormat="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="5">
         <v>10</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="5" t="s">
+    <row r="56" spans="1:7" s="5" customFormat="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="5">
         <v>30</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="5">
         <v>18</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="5">
-        <v>50</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="5">
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="19"/>
+      <c r="B59" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="5">
-        <v>255</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>135</v>
@@ -3054,73 +3256,73 @@
         <v>255</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="5">
+        <v>255</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="5" t="s">
+    <row r="61" spans="1:7" s="5" customFormat="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="5">
         <v>20</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="5">
         <v>1</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:7" s="5" customFormat="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <v>6</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="5" t="s">
+    <row r="63" spans="1:7" s="5" customFormat="1">
+      <c r="A63" s="19"/>
+      <c r="B63" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="5">
-        <v>2</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>137</v>
@@ -3129,163 +3331,163 @@
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:7" s="5" customFormat="1">
+      <c r="A65" s="19"/>
+      <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="5">
         <v>255</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="5" t="s">
+    <row r="66" spans="1:7" s="5" customFormat="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D65" s="5">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="A67" s="19"/>
+      <c r="B67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="5" t="s">
+    <row r="68" spans="1:7" s="5" customFormat="1">
+      <c r="A68" s="19"/>
+      <c r="B68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="5">
         <v>255</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="5" customFormat="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="5" t="s">
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="A69" s="19"/>
+      <c r="B69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="5">
         <v>2</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="A69" s="21"/>
-      <c r="B69" s="5" t="s">
+    <row r="70" spans="1:7" s="5" customFormat="1">
+      <c r="A70" s="19"/>
+      <c r="B70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="5">
         <v>255</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>1</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="5" customFormat="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="1:7" s="5" customFormat="1">
+      <c r="A71" s="19"/>
+      <c r="B71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="C71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="5">
         <v>30</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="1:7" s="5" customFormat="1">
+      <c r="A72" s="19"/>
+      <c r="B72" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="5" customFormat="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>137</v>
@@ -3294,1172 +3496,1173 @@
         <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1">
+      <c r="A73" s="19"/>
+      <c r="B73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="5" t="s">
+    <row r="74" spans="1:7" s="5" customFormat="1">
+      <c r="A74" s="19"/>
+      <c r="B74" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="5">
         <v>30</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="5" customFormat="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="1:7" s="5" customFormat="1">
+      <c r="A75" s="19"/>
+      <c r="B75" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <v>6</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="5" t="s">
+    <row r="76" spans="1:7" s="5" customFormat="1">
+      <c r="A76" s="19"/>
+      <c r="B76" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>2</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="5" customFormat="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="5" t="s">
+    <row r="77" spans="1:7" s="5" customFormat="1">
+      <c r="A77" s="19"/>
+      <c r="B77" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="5">
         <v>6</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="5" customFormat="1">
-      <c r="A77" s="21"/>
-      <c r="B77" s="5" t="s">
+    <row r="78" spans="1:7" s="5" customFormat="1">
+      <c r="A78" s="19"/>
+      <c r="B78" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C78" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="5">
         <v>30</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="5" customFormat="1">
-      <c r="A78" s="21"/>
-      <c r="B78" s="5" t="s">
+    <row r="79" spans="1:7" s="5" customFormat="1">
+      <c r="A79" s="19"/>
+      <c r="B79" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D78" s="5">
-        <v>32</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="D79" s="5">
+        <v>32</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="5" customFormat="1">
-      <c r="A79" s="21"/>
-      <c r="B79" s="5" t="s">
+    <row r="80" spans="1:7" s="5" customFormat="1">
+      <c r="A80" s="19"/>
+      <c r="B80" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="5">
-        <v>32</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="5">
+        <v>32</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="5" customFormat="1">
-      <c r="A80" s="21"/>
-      <c r="B80" s="5" t="s">
+    <row r="81" spans="1:7" s="5" customFormat="1">
+      <c r="A81" s="19"/>
+      <c r="B81" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D80" s="5">
-        <v>32</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D81" s="5">
+        <v>32</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1">
-      <c r="A81" s="21"/>
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="19"/>
+      <c r="B82" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="5">
-        <v>32</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="D82" s="5">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="5" customFormat="1">
-      <c r="A82" s="21"/>
-      <c r="B82" s="5" t="s">
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="19"/>
+      <c r="B83" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="5">
-        <v>32</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="C83" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="5">
+        <v>32</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1">
-      <c r="A83" s="21"/>
-      <c r="B83" s="5" t="s">
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="19"/>
+      <c r="B84" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D83" s="5">
-        <v>32</v>
-      </c>
-      <c r="E83" s="5" t="s">
+      <c r="D84" s="5">
+        <v>32</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="5" customFormat="1">
-      <c r="A84" s="21"/>
-      <c r="B84" s="5" t="s">
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="19"/>
+      <c r="B85" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="5">
-        <v>32</v>
-      </c>
-      <c r="E84" s="5" t="s">
+      <c r="D85" s="5">
+        <v>32</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="A85" s="21"/>
-      <c r="B85" s="5" t="s">
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="19"/>
+      <c r="B86" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="5">
-        <v>32</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="5" customFormat="1">
-      <c r="A86" s="21"/>
-      <c r="B86" s="5" t="s">
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="19"/>
+      <c r="B87" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D86" s="5">
-        <v>32</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="D87" s="5">
+        <v>32</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
-      <c r="A87" s="21"/>
-      <c r="B87" s="5" t="s">
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="19"/>
+      <c r="B88" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D88" s="5">
         <v>2</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1">
-      <c r="A88" s="21"/>
-      <c r="B88" s="5" t="s">
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="19"/>
+      <c r="B89" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="5">
-        <v>32</v>
-      </c>
-      <c r="E88" s="5" t="s">
+      <c r="D89" s="5">
+        <v>32</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1">
-      <c r="A89" s="21"/>
-      <c r="B89" s="5" t="s">
+    <row r="90" spans="1:7" s="5" customFormat="1">
+      <c r="A90" s="19"/>
+      <c r="B90" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D89" s="5">
-        <v>255</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="5" customFormat="1">
-      <c r="A90" s="21"/>
-      <c r="B90" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D90" s="5">
         <v>255</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1">
+      <c r="A91" s="19"/>
+      <c r="B91" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="5">
+        <v>255</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="5" customFormat="1">
-      <c r="A91" s="21"/>
-      <c r="B91" s="5" t="s">
+    <row r="92" spans="1:7" s="5" customFormat="1">
+      <c r="A92" s="19"/>
+      <c r="B92" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D92" s="5">
         <v>2</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="5" customFormat="1">
-      <c r="A92" s="21"/>
-      <c r="B92" s="5" t="s">
+    <row r="93" spans="1:7" s="5" customFormat="1">
+      <c r="A93" s="19"/>
+      <c r="B93" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="5">
-        <v>32</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="5">
+        <v>32</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1">
-      <c r="A93" s="21"/>
-      <c r="B93" s="5" t="s">
+    <row r="94" spans="1:7" s="5" customFormat="1">
+      <c r="A94" s="19"/>
+      <c r="B94" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D94" s="5">
         <v>6</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1">
-      <c r="A94" s="21"/>
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="1:7" s="5" customFormat="1">
+      <c r="A95" s="19"/>
+      <c r="B95" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="5">
-        <v>32</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="5">
+        <v>32</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="5" customFormat="1">
-      <c r="A95" s="21"/>
-      <c r="B95" s="5" t="s">
+    <row r="96" spans="1:7" s="5" customFormat="1">
+      <c r="A96" s="19"/>
+      <c r="B96" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D96" s="5">
         <v>6</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="22"/>
-      <c r="B96" s="5" t="s">
+    <row r="97" spans="1:7">
+      <c r="A97" s="20"/>
+      <c r="B97" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D97" s="5">
         <v>255</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1">
-      <c r="A99" s="4" t="s">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1">
+      <c r="A100" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A100" s="20" t="s">
+    <row r="101" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A101" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D100" s="5">
-        <v>32</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="D101" s="5">
+        <v>32</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="23"/>
-      <c r="B101" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="5">
-        <v>32</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="23"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="5">
+        <v>32</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="16"/>
+      <c r="B103" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D103" s="5">
         <v>50</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="23"/>
-      <c r="B103" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="5">
-        <v>32</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="23"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="D104" s="5">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="23"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="D105" s="5">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="23"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D106" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="23"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="D107" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="23"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="5" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="D108" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="16"/>
+      <c r="B109" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="23"/>
-      <c r="B109" s="5" t="s">
+    <row r="110" spans="1:7">
+      <c r="A110" s="16"/>
+      <c r="B110" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="5">
-        <v>32</v>
-      </c>
-      <c r="E109" s="5" t="s">
+      <c r="C110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="5">
+        <v>32</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="23"/>
-      <c r="B110" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D110" s="5">
-        <v>6</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="23"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D111" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="23"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D112" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="24"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D113" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="116" spans="1:7" s="4" customFormat="1">
-      <c r="A116" s="4" t="s">
+    <row r="114" spans="1:7">
+      <c r="A114" s="17"/>
+      <c r="B114" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="5">
+        <v>255</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1">
+      <c r="A117" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G117" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A117" s="20" t="s">
+    <row r="118" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A118" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="5">
-        <v>32</v>
-      </c>
-      <c r="E117" s="5" t="s">
+      <c r="C118" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="5">
+        <v>32</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="23"/>
-      <c r="B118" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="5">
-        <v>32</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="23"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="D119" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="23"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D120" s="5">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="23"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D121" s="5">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="23"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="5">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="16"/>
+      <c r="B123" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D123" s="5">
         <v>2</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5" t="s">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="23"/>
-      <c r="B123" s="5" t="s">
+    <row r="124" spans="1:7">
+      <c r="A124" s="16"/>
+      <c r="B124" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="5">
-        <v>32</v>
-      </c>
-      <c r="E123" s="5" t="s">
+      <c r="C124" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="5">
+        <v>32</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="23"/>
-      <c r="B124" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="5">
-        <v>6</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="23"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D125" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="23"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D126" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="24"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D127" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="130" spans="1:7" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
+    <row r="128" spans="1:7">
+      <c r="A128" s="17"/>
+      <c r="B128" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" s="5">
+        <v>255</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1">
+      <c r="A131" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G131" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="20" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B132" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D131" s="5">
-        <v>32</v>
-      </c>
-      <c r="E131" s="5" t="s">
+      <c r="C132" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="5">
+        <v>32</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="23"/>
-      <c r="B132" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132" s="5">
-        <v>32</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="23"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="5">
+        <v>32</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="16"/>
+      <c r="B134" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="5">
-        <v>32</v>
-      </c>
-      <c r="E133" s="5" t="s">
+      <c r="C134" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="5">
+        <v>32</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="23"/>
-      <c r="B134" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" s="5">
-        <v>32</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="23"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="5" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D135" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="16"/>
+      <c r="B136" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="5">
+        <v>2</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="23"/>
-      <c r="B136" s="5" t="s">
+    <row r="137" spans="1:7">
+      <c r="A137" s="16"/>
+      <c r="B137" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" s="5">
-        <v>32</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="C137" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" s="5">
+        <v>32</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="23"/>
-      <c r="B137" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D137" s="5">
-        <v>6</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="23"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D138" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="23"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D139" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="24"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D140" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="143" spans="1:7" s="4" customFormat="1">
-      <c r="A143" s="4" t="s">
+    <row r="141" spans="1:7">
+      <c r="A141" s="17"/>
+      <c r="B141" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D141" s="5">
+        <v>255</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1">
+      <c r="A144" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G144" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="20" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B145" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D144" s="5">
-        <v>32</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="C145" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="5">
+        <v>32</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="13"/>
-      <c r="B145" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D145" s="5">
-        <v>32</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -4467,7 +4670,7 @@
     <row r="146" spans="1:7">
       <c r="A146" s="13"/>
       <c r="B146" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>135</v>
@@ -4476,7 +4679,7 @@
         <v>32</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -4484,7 +4687,7 @@
     <row r="147" spans="1:7">
       <c r="A147" s="13"/>
       <c r="B147" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>135</v>
@@ -4493,7 +4696,7 @@
         <v>32</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -4501,52 +4704,52 @@
     <row r="148" spans="1:7">
       <c r="A148" s="13"/>
       <c r="B148" s="5" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D148" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="13"/>
       <c r="B149" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D149" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="G149" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="13"/>
       <c r="B150" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D150" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -4554,16 +4757,16 @@
     <row r="151" spans="1:7">
       <c r="A151" s="13"/>
       <c r="B151" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D151" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -4571,92 +4774,92 @@
     <row r="152" spans="1:7">
       <c r="A152" s="13"/>
       <c r="B152" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D152" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="14"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D153" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="156" spans="1:7" s="4" customFormat="1">
-      <c r="A156" s="4" t="s">
+    <row r="154" spans="1:7">
+      <c r="A154" s="14"/>
+      <c r="B154" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D154" s="5">
+        <v>255</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="157" spans="1:7" s="4" customFormat="1">
+      <c r="A157" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E157" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F157" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="G157" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="20" t="s">
+    <row r="158" spans="1:7">
+      <c r="A158" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D157" s="5">
-        <v>32</v>
-      </c>
-      <c r="E157" s="5" t="s">
+      <c r="C158" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="5">
+        <v>32</v>
+      </c>
+      <c r="E158" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="13"/>
-      <c r="B158" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D158" s="5">
-        <v>32</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -4664,7 +4867,7 @@
     <row r="159" spans="1:7">
       <c r="A159" s="13"/>
       <c r="B159" s="5" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>135</v>
@@ -4673,7 +4876,7 @@
         <v>32</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -4681,52 +4884,52 @@
     <row r="160" spans="1:7">
       <c r="A160" s="13"/>
       <c r="B160" s="5" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D160" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="F160" s="5"/>
-      <c r="G160" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="13"/>
       <c r="B161" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D161" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="G161" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="13"/>
       <c r="B162" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D162" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -4734,16 +4937,16 @@
     <row r="163" spans="1:7">
       <c r="A163" s="13"/>
       <c r="B163" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D163" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -4751,92 +4954,92 @@
     <row r="164" spans="1:7">
       <c r="A164" s="13"/>
       <c r="B164" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D164" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="14"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D165" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="168" spans="1:7" s="4" customFormat="1">
-      <c r="A168" s="4" t="s">
+    <row r="166" spans="1:7">
+      <c r="A166" s="14"/>
+      <c r="B166" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D166" s="5">
+        <v>255</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="169" spans="1:7" s="4" customFormat="1">
+      <c r="A169" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E169" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F169" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G168" s="4" t="s">
+      <c r="G169" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="20" t="s">
+    <row r="170" spans="1:7">
+      <c r="A170" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D169" s="5">
-        <v>32</v>
-      </c>
-      <c r="E169" s="5" t="s">
+      <c r="C170" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D170" s="5">
+        <v>32</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="13"/>
-      <c r="B170" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D170" s="5">
-        <v>32</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -4844,7 +5047,7 @@
     <row r="171" spans="1:7">
       <c r="A171" s="13"/>
       <c r="B171" s="5" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>135</v>
@@ -4853,7 +5056,7 @@
         <v>32</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -4861,7 +5064,7 @@
     <row r="172" spans="1:7">
       <c r="A172" s="13"/>
       <c r="B172" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>135</v>
@@ -4870,7 +5073,7 @@
         <v>32</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -4878,52 +5081,52 @@
     <row r="173" spans="1:7">
       <c r="A173" s="13"/>
       <c r="B173" s="5" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D173" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="F173" s="5"/>
-      <c r="G173" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="13"/>
       <c r="B174" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D174" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
+      <c r="G174" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="13"/>
       <c r="B175" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D175" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -4931,16 +5134,16 @@
     <row r="176" spans="1:7">
       <c r="A176" s="13"/>
       <c r="B176" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D176" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -4948,92 +5151,92 @@
     <row r="177" spans="1:7">
       <c r="A177" s="13"/>
       <c r="B177" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D177" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="14"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D178" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="181" spans="1:7" s="4" customFormat="1">
-      <c r="A181" s="4" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" s="14"/>
+      <c r="B179" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" s="5">
+        <v>255</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="182" spans="1:7" s="4" customFormat="1">
+      <c r="A182" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D182" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G182" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="12" t="s">
+    <row r="183" spans="1:7">
+      <c r="A183" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B183" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D182" s="5">
-        <v>32</v>
-      </c>
-      <c r="E182" s="5" t="s">
+      <c r="C183" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D183" s="5">
+        <v>32</v>
+      </c>
+      <c r="E183" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="13"/>
-      <c r="B183" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D183" s="5">
-        <v>32</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -5041,7 +5244,7 @@
     <row r="184" spans="1:7">
       <c r="A184" s="13"/>
       <c r="B184" s="5" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>135</v>
@@ -5050,7 +5253,7 @@
         <v>32</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -5058,7 +5261,7 @@
     <row r="185" spans="1:7">
       <c r="A185" s="13"/>
       <c r="B185" s="5" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>135</v>
@@ -5067,7 +5270,7 @@
         <v>32</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -5075,7 +5278,7 @@
     <row r="186" spans="1:7">
       <c r="A186" s="13"/>
       <c r="B186" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>135</v>
@@ -5084,7 +5287,7 @@
         <v>32</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -5092,16 +5295,16 @@
     <row r="187" spans="1:7">
       <c r="A187" s="13"/>
       <c r="B187" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D187" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -5109,16 +5312,16 @@
     <row r="188" spans="1:7">
       <c r="A188" s="13"/>
       <c r="B188" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D188" s="5">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -5126,16 +5329,16 @@
     <row r="189" spans="1:7">
       <c r="A189" s="13"/>
       <c r="B189" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D189" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -5143,52 +5346,52 @@
     <row r="190" spans="1:7">
       <c r="A190" s="13"/>
       <c r="B190" s="5" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D190" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="F190" s="5"/>
-      <c r="G190" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="13"/>
       <c r="B191" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D191" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
+      <c r="G191" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="13"/>
       <c r="B192" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D192" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -5196,16 +5399,16 @@
     <row r="193" spans="1:7">
       <c r="A193" s="13"/>
       <c r="B193" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D193" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -5213,92 +5416,92 @@
     <row r="194" spans="1:7">
       <c r="A194" s="13"/>
       <c r="B194" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D194" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="14"/>
+      <c r="A195" s="13"/>
       <c r="B195" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D195" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="198" spans="1:7" s="4" customFormat="1">
-      <c r="A198" s="4" t="s">
+    <row r="196" spans="1:7">
+      <c r="A196" s="14"/>
+      <c r="B196" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D196" s="5">
+        <v>255</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+    </row>
+    <row r="199" spans="1:7" s="4" customFormat="1">
+      <c r="A199" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B199" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C199" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="E199" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F199" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G199" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="20" t="s">
+    <row r="200" spans="1:7">
+      <c r="A200" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B200" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D199" s="5">
-        <v>32</v>
-      </c>
-      <c r="E199" s="5" t="s">
+      <c r="C200" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D200" s="5">
+        <v>32</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="13"/>
-      <c r="B200" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D200" s="5">
-        <v>32</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -5306,16 +5509,16 @@
     <row r="201" spans="1:7">
       <c r="A201" s="13"/>
       <c r="B201" s="5" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D201" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -5323,16 +5526,16 @@
     <row r="202" spans="1:7">
       <c r="A202" s="13"/>
       <c r="B202" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D202" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -5340,71 +5543,71 @@
     <row r="203" spans="1:7">
       <c r="A203" s="13"/>
       <c r="B203" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D203" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F203" s="5"/>
-      <c r="G203" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="G203" s="5"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="13"/>
       <c r="B204" s="5" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D204" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="13"/>
       <c r="B205" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D205" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
+      <c r="G205" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="13"/>
       <c r="B206" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D206" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
@@ -5412,16 +5615,16 @@
     <row r="207" spans="1:7">
       <c r="A207" s="13"/>
       <c r="B207" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D207" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
@@ -5429,92 +5632,92 @@
     <row r="208" spans="1:7">
       <c r="A208" s="13"/>
       <c r="B208" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D208" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="14"/>
+      <c r="A209" s="13"/>
       <c r="B209" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D209" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="212" spans="1:7" s="4" customFormat="1">
-      <c r="A212" s="4" t="s">
+    <row r="210" spans="1:7">
+      <c r="A210" s="14"/>
+      <c r="B210" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D210" s="5">
+        <v>255</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+    </row>
+    <row r="213" spans="1:7" s="4" customFormat="1">
+      <c r="A213" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D213" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F213" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="G213" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="20" t="s">
+    <row r="214" spans="1:7">
+      <c r="A214" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B214" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D213" s="5">
-        <v>32</v>
-      </c>
-      <c r="E213" s="5" t="s">
+      <c r="C214" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D214" s="5">
+        <v>32</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="13"/>
-      <c r="B214" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D214" s="5">
-        <v>32</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -5522,16 +5725,16 @@
     <row r="215" spans="1:7">
       <c r="A215" s="13"/>
       <c r="B215" s="5" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="D215" s="5">
         <v>32</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -5539,16 +5742,16 @@
     <row r="216" spans="1:7">
       <c r="A216" s="13"/>
       <c r="B216" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="D216" s="5">
         <v>32</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -5556,16 +5759,16 @@
     <row r="217" spans="1:7">
       <c r="A217" s="13"/>
       <c r="B217" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="D217" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -5573,52 +5776,52 @@
     <row r="218" spans="1:7">
       <c r="A218" s="13"/>
       <c r="B218" s="5" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="D218" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="F218" s="5"/>
-      <c r="G218" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="13"/>
       <c r="B219" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D219" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
+      <c r="G219" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="13"/>
       <c r="B220" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D220" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -5626,16 +5829,16 @@
     <row r="221" spans="1:7">
       <c r="A221" s="13"/>
       <c r="B221" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D221" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -5643,53 +5846,477 @@
     <row r="222" spans="1:7">
       <c r="A222" s="13"/>
       <c r="B222" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D222" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="14"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="5" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D223" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="14"/>
+      <c r="B224" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D224" s="5">
+        <v>255</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+    </row>
+    <row r="227" spans="1:7" s="4" customFormat="1">
+      <c r="A227" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D228" s="5">
+        <v>32</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="13"/>
+      <c r="B229" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D229" s="5">
+        <v>32</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="13"/>
+      <c r="B230" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="13"/>
+      <c r="B231" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="13"/>
+      <c r="B232" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="13"/>
+      <c r="B233" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="13"/>
+      <c r="B234" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="13"/>
+      <c r="B235" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="13"/>
+      <c r="B236" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="13"/>
+      <c r="B237" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="13"/>
+      <c r="B238" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="13"/>
+      <c r="B239" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="13"/>
+      <c r="B240" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="13"/>
+      <c r="B241" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="13"/>
+      <c r="B242" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="13"/>
+      <c r="B243" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="13"/>
+      <c r="B244" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="13"/>
+      <c r="B245" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="13"/>
+      <c r="B246" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="13"/>
+      <c r="B247" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D247" s="5">
+        <v>2</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="13"/>
+      <c r="B248" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D248" s="5">
+        <v>32</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="13"/>
+      <c r="B249" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D249" s="5">
+        <v>6</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="13"/>
+      <c r="B250" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D250" s="5">
+        <v>32</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="13"/>
+      <c r="B251" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D251" s="5">
+        <v>6</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="14"/>
+      <c r="B252" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D252" s="5">
+        <v>255</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A213:A223"/>
-    <mergeCell ref="A144:A153"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="A182:A195"/>
-    <mergeCell ref="A199:A209"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="A50:A96"/>
-    <mergeCell ref="A100:A113"/>
-    <mergeCell ref="A117:A127"/>
+  <mergeCells count="15">
+    <mergeCell ref="A228:A252"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A51:A97"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A118:A128"/>
     <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="A214:A224"/>
+    <mergeCell ref="A145:A154"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="A183:A196"/>
+    <mergeCell ref="A200:A210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="415">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户收藏表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户地址表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户浏览记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史任务表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +88,6 @@
   </si>
   <si>
     <t>邀请系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户喜好表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1309,10 +1293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_web_Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Province</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,10 +1383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_web_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1555,18 +1531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务分解项，并且表明每项的价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问人任务发布的时候估算一个价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方协商后，准确的价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当任务取消，产生有价值的问题解决办法，支付部分金额后剩下的金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,22 +1547,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认解决时间为2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.取消任务 1.继续任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>意外处理结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认解决时间为2小时,储存单位为分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问人任务发布的时候估算一个价格,考虑一下是否要直接计算分项的和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方协商后，准确的价格,考虑一下是否要直接计算分项的和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分项标题和内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分项价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户喜好表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户地址表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Address
+用户地址表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_order
+任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务都需要解决什么，分成一项一项写出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一项相对应的价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItem
+任务分项表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分解项，并且表明每项的价值，细化到数量等详细值，用来作为凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改类型，新增，任务开始前修改，任务途中修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在修改之前，把原本的存到修改历史表中，然后实时的任务表是最新的，这里存的是上次修改之前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改次数，新增的时候为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1754,7 +1849,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1768,7 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1777,7 +1872,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,6 +1901,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1895,7 +1992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1927,10 +2024,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1962,7 +2058,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2138,16 +2233,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D229" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="3" customWidth="1"/>
@@ -2159,21 +2254,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -2192,13 +2287,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2214,25 +2309,25 @@
     <row r="5" spans="1:14" s="10" customFormat="1">
       <c r="A5" s="21"/>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="21"/>
-      <c r="B6" s="7" t="s">
-        <v>94</v>
+      <c r="B6" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2247,14 +2342,14 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="21"/>
-      <c r="B7" s="7" t="s">
-        <v>180</v>
+      <c r="B7" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2269,14 +2364,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
-        <v>186</v>
+      <c r="B8" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2291,14 +2386,14 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
+      <c r="B9" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2313,14 +2408,14 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="21"/>
-      <c r="B10" s="2" t="s">
-        <v>302</v>
+      <c r="B10" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2336,13 +2431,13 @@
     <row r="11" spans="1:14">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
@@ -2358,25 +2453,25 @@
     <row r="12" spans="1:14" s="10" customFormat="1">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
+      <c r="B13" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2391,14 +2486,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="21"/>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
+      <c r="B14" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2413,14 +2508,14 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="21"/>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
+      <c r="B15" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2435,14 +2530,14 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
+      <c r="B16" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2458,11 +2553,11 @@
     <row r="17" spans="1:14">
       <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2477,16 +2572,16 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2501,12 +2596,14 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="22"/>
-      <c r="B19" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2522,11 +2619,13 @@
     <row r="20" spans="1:14">
       <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>405</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2539,34 +2638,23 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" s="10" customFormat="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2582,11 +2670,11 @@
     <row r="23" spans="1:14">
       <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2602,11 +2690,11 @@
     <row r="24" spans="1:14">
       <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2622,11 +2710,11 @@
     <row r="25" spans="1:14">
       <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2642,11 +2730,11 @@
     <row r="26" spans="1:14">
       <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2662,11 +2750,11 @@
     <row r="27" spans="1:14">
       <c r="A27" s="22"/>
       <c r="B27" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2681,14 +2769,14 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2704,11 +2792,11 @@
     <row r="29" spans="1:14">
       <c r="A29" s="23"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2724,11 +2812,11 @@
     <row r="30" spans="1:14">
       <c r="A30" s="23"/>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2744,11 +2832,11 @@
     <row r="31" spans="1:14">
       <c r="A31" s="23"/>
       <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2764,7 +2852,7 @@
     <row r="32" spans="1:14">
       <c r="A32" s="23"/>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
@@ -2781,14 +2869,14 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2804,11 +2892,11 @@
     <row r="34" spans="1:14">
       <c r="A34" s="24"/>
       <c r="B34" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2824,11 +2912,11 @@
     <row r="35" spans="1:14">
       <c r="A35" s="24"/>
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2844,11 +2932,11 @@
     <row r="36" spans="1:14">
       <c r="A36" s="24"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2864,11 +2952,11 @@
     <row r="37" spans="1:14">
       <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2884,11 +2972,11 @@
     <row r="38" spans="1:14">
       <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2904,11 +2992,11 @@
     <row r="39" spans="1:14">
       <c r="A39" s="24"/>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2924,11 +3012,11 @@
     <row r="40" spans="1:14">
       <c r="A40" s="24"/>
       <c r="B40" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2944,11 +3032,11 @@
     <row r="41" spans="1:14">
       <c r="A41" s="24"/>
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2964,11 +3052,11 @@
     <row r="42" spans="1:14">
       <c r="A42" s="24"/>
       <c r="B42" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2984,11 +3072,11 @@
     <row r="43" spans="1:14">
       <c r="A43" s="24"/>
       <c r="B43" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3004,11 +3092,11 @@
     <row r="44" spans="1:14">
       <c r="A44" s="24"/>
       <c r="B44" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3024,11 +3112,11 @@
     <row r="45" spans="1:14">
       <c r="A45" s="24"/>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3044,11 +3132,11 @@
     <row r="46" spans="1:14">
       <c r="A46" s="24"/>
       <c r="B46" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3063,47 +3151,47 @@
     </row>
     <row r="47" spans="1:14">
       <c r="B47" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="4" customFormat="1">
       <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2">
         <v>32</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -3112,865 +3200,865 @@
     <row r="52" spans="1:7" s="5" customFormat="1">
       <c r="A52" s="19"/>
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D52" s="5">
         <v>16</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1">
       <c r="A53" s="19"/>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1">
       <c r="A54" s="19"/>
       <c r="B54" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1">
       <c r="A55" s="19"/>
       <c r="B55" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D55" s="5">
         <v>10</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1">
       <c r="A56" s="19"/>
       <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D56" s="5">
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1">
       <c r="A57" s="19"/>
       <c r="B57" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D57" s="5">
         <v>18</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1">
       <c r="A58" s="19"/>
       <c r="B58" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" s="5">
         <v>50</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F58" s="5">
         <v>1</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1">
       <c r="A59" s="19"/>
       <c r="B59" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D59" s="5">
         <v>255</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1">
       <c r="A60" s="19"/>
       <c r="B60" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D60" s="5">
         <v>255</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1">
       <c r="A61" s="19"/>
       <c r="B61" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D61" s="5">
         <v>20</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1">
       <c r="A62" s="19"/>
       <c r="B62" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D62" s="5">
         <v>6</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1">
       <c r="A63" s="19"/>
       <c r="B63" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D63" s="5">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1">
       <c r="A64" s="19"/>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1">
       <c r="A65" s="19"/>
       <c r="B65" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D65" s="5">
         <v>255</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1">
       <c r="A66" s="19"/>
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1">
       <c r="A67" s="19"/>
       <c r="B67" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1">
       <c r="A68" s="19"/>
       <c r="B68" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="5">
         <v>255</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1">
       <c r="A69" s="19"/>
       <c r="B69" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1">
       <c r="A70" s="19"/>
       <c r="B70" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D70" s="5">
         <v>255</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F70" s="5">
         <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1">
       <c r="A71" s="19"/>
       <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5">
         <v>30</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1">
       <c r="A72" s="19"/>
       <c r="B72" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D72" s="5">
         <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1">
       <c r="A73" s="19"/>
       <c r="B73" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1">
       <c r="A74" s="19"/>
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D74" s="5">
         <v>30</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1">
       <c r="A75" s="19"/>
       <c r="B75" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D75" s="5">
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1">
       <c r="A76" s="19"/>
       <c r="B76" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D76" s="5">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1">
       <c r="A77" s="19"/>
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D77" s="5">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1">
       <c r="A78" s="19"/>
       <c r="B78" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D78" s="5">
         <v>30</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1">
       <c r="A79" s="19"/>
       <c r="B79" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D79" s="5">
         <v>32</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1">
       <c r="A80" s="19"/>
       <c r="B80" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="5">
         <v>32</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="5" customFormat="1">
       <c r="A81" s="19"/>
       <c r="B81" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D81" s="5">
         <v>32</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1">
       <c r="A82" s="19"/>
       <c r="B82" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D82" s="5">
         <v>32</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1">
       <c r="A83" s="19"/>
       <c r="B83" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D83" s="5">
         <v>32</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="5" customFormat="1">
       <c r="A84" s="19"/>
       <c r="B84" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D84" s="5">
         <v>32</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="5" customFormat="1">
       <c r="A85" s="19"/>
       <c r="B85" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D85" s="5">
         <v>32</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="5" customFormat="1">
       <c r="A86" s="19"/>
       <c r="B86" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D86" s="5">
         <v>32</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="5" customFormat="1">
       <c r="A87" s="19"/>
       <c r="B87" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D87" s="5">
         <v>32</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1">
       <c r="A88" s="19"/>
       <c r="B88" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D88" s="5">
         <v>2</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1">
       <c r="A89" s="19"/>
       <c r="B89" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D89" s="5">
         <v>32</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="5" customFormat="1">
       <c r="A90" s="19"/>
       <c r="B90" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D90" s="5">
         <v>255</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="5" customFormat="1">
       <c r="A91" s="19"/>
       <c r="B91" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D91" s="5">
         <v>255</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1">
       <c r="A92" s="19"/>
       <c r="B92" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D92" s="5">
         <v>2</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1">
       <c r="A93" s="19"/>
       <c r="B93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="5">
+        <v>32</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="5">
-        <v>32</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1">
       <c r="A94" s="19"/>
       <c r="B94" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D94" s="5">
         <v>6</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1">
       <c r="A95" s="19"/>
       <c r="B95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="5">
+        <v>32</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="5">
-        <v>32</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1">
       <c r="A96" s="19"/>
       <c r="B96" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D96" s="5">
         <v>6</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="20"/>
       <c r="B97" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D97" s="5">
         <v>255</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="12" t="s">
-        <v>275</v>
+      <c r="A101" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D101" s="5">
         <v>32</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -3978,16 +4066,16 @@
     <row r="102" spans="1:7">
       <c r="A102" s="16"/>
       <c r="B102" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D102" s="5">
         <v>32</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -3995,149 +4083,149 @@
     <row r="103" spans="1:7">
       <c r="A103" s="16"/>
       <c r="B103" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D103" s="5">
         <v>50</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="16"/>
       <c r="B104" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D104" s="5">
         <v>32</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="16"/>
       <c r="B105" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D105" s="5">
         <v>50</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="16"/>
       <c r="B106" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D106" s="5">
         <v>6</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="16"/>
       <c r="B107" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="5">
         <v>32</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="16"/>
       <c r="B108" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D108" s="5">
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="16"/>
       <c r="B109" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="16"/>
       <c r="B110" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="5">
+        <v>32</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" s="5">
-        <v>32</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -4145,16 +4233,16 @@
     <row r="111" spans="1:7">
       <c r="A111" s="16"/>
       <c r="B111" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D111" s="5">
         <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -4162,16 +4250,16 @@
     <row r="112" spans="1:7">
       <c r="A112" s="16"/>
       <c r="B112" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="5">
+        <v>32</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="5">
-        <v>32</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -4179,16 +4267,16 @@
     <row r="113" spans="1:7">
       <c r="A113" s="16"/>
       <c r="B113" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D113" s="5">
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -4196,16 +4284,16 @@
     <row r="114" spans="1:7">
       <c r="A114" s="17"/>
       <c r="B114" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D114" s="5">
         <v>255</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -4215,39 +4303,39 @@
         <v>0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A118" s="12" t="s">
-        <v>276</v>
+      <c r="A118" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D118" s="5">
         <v>32</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -4255,16 +4343,16 @@
     <row r="119" spans="1:7">
       <c r="A119" s="16"/>
       <c r="B119" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D119" s="5">
         <v>32</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -4272,16 +4360,16 @@
     <row r="120" spans="1:7">
       <c r="A120" s="16"/>
       <c r="B120" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D120" s="5">
         <v>30</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -4289,16 +4377,16 @@
     <row r="121" spans="1:7">
       <c r="A121" s="16"/>
       <c r="B121" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D121" s="5">
         <v>255</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -4306,16 +4394,16 @@
     <row r="122" spans="1:7">
       <c r="A122" s="16"/>
       <c r="B122" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D122" s="5">
         <v>6</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -4323,35 +4411,35 @@
     <row r="123" spans="1:7">
       <c r="A123" s="16"/>
       <c r="B123" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D123" s="5">
         <v>2</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="16"/>
       <c r="B124" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="5">
+        <v>32</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" s="5">
-        <v>32</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -4359,16 +4447,16 @@
     <row r="125" spans="1:7">
       <c r="A125" s="16"/>
       <c r="B125" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D125" s="5">
         <v>6</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -4376,16 +4464,16 @@
     <row r="126" spans="1:7">
       <c r="A126" s="16"/>
       <c r="B126" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="5">
+        <v>32</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D126" s="5">
-        <v>32</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -4393,16 +4481,16 @@
     <row r="127" spans="1:7">
       <c r="A127" s="16"/>
       <c r="B127" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D127" s="5">
         <v>6</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -4410,16 +4498,16 @@
     <row r="128" spans="1:7">
       <c r="A128" s="17"/>
       <c r="B128" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D128" s="5">
         <v>255</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -4429,39 +4517,39 @@
         <v>0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="12" t="s">
-        <v>282</v>
+      <c r="A132" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D132" s="5">
         <v>32</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -4469,16 +4557,16 @@
     <row r="133" spans="1:7">
       <c r="A133" s="16"/>
       <c r="B133" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D133" s="5">
         <v>32</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -4486,73 +4574,73 @@
     <row r="134" spans="1:7">
       <c r="A134" s="16"/>
       <c r="B134" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D134" s="5">
         <v>32</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="16"/>
       <c r="B135" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D135" s="5">
         <v>32</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="16"/>
       <c r="B136" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D136" s="5">
         <v>2</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="16"/>
       <c r="B137" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D137" s="5">
+        <v>32</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137" s="5">
-        <v>32</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -4560,16 +4648,16 @@
     <row r="138" spans="1:7">
       <c r="A138" s="16"/>
       <c r="B138" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D138" s="5">
         <v>6</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -4577,16 +4665,16 @@
     <row r="139" spans="1:7">
       <c r="A139" s="16"/>
       <c r="B139" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D139" s="5">
+        <v>32</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D139" s="5">
-        <v>32</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -4594,16 +4682,16 @@
     <row r="140" spans="1:7">
       <c r="A140" s="16"/>
       <c r="B140" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D140" s="5">
         <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -4611,16 +4699,16 @@
     <row r="141" spans="1:7">
       <c r="A141" s="17"/>
       <c r="B141" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D141" s="5">
         <v>255</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -4630,39 +4718,39 @@
         <v>0</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="12" t="s">
-        <v>289</v>
+      <c r="A145" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D145" s="5">
         <v>32</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -4670,16 +4758,16 @@
     <row r="146" spans="1:7">
       <c r="A146" s="13"/>
       <c r="B146" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D146" s="5">
         <v>32</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -4687,16 +4775,16 @@
     <row r="147" spans="1:7">
       <c r="A147" s="13"/>
       <c r="B147" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D147" s="5">
         <v>32</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -4704,16 +4792,16 @@
     <row r="148" spans="1:7">
       <c r="A148" s="13"/>
       <c r="B148" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D148" s="5">
         <v>32</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -4721,35 +4809,35 @@
     <row r="149" spans="1:7">
       <c r="A149" s="13"/>
       <c r="B149" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="13"/>
       <c r="B150" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" s="5">
+        <v>32</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D150" s="5">
-        <v>32</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -4757,16 +4845,16 @@
     <row r="151" spans="1:7">
       <c r="A151" s="13"/>
       <c r="B151" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D151" s="5">
         <v>6</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -4774,16 +4862,16 @@
     <row r="152" spans="1:7">
       <c r="A152" s="13"/>
       <c r="B152" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" s="5">
+        <v>32</v>
+      </c>
+      <c r="E152" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D152" s="5">
-        <v>32</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -4791,16 +4879,16 @@
     <row r="153" spans="1:7">
       <c r="A153" s="13"/>
       <c r="B153" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D153" s="5">
         <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -4808,16 +4896,16 @@
     <row r="154" spans="1:7">
       <c r="A154" s="14"/>
       <c r="B154" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D154" s="5">
         <v>255</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -4827,39 +4915,39 @@
         <v>0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="12" t="s">
-        <v>300</v>
+      <c r="A158" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D158" s="5">
         <v>32</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -4867,16 +4955,16 @@
     <row r="159" spans="1:7">
       <c r="A159" s="13"/>
       <c r="B159" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D159" s="5">
         <v>32</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -4884,16 +4972,16 @@
     <row r="160" spans="1:7">
       <c r="A160" s="13"/>
       <c r="B160" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D160" s="5">
         <v>32</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -4901,35 +4989,35 @@
     <row r="161" spans="1:7">
       <c r="A161" s="13"/>
       <c r="B161" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="13"/>
       <c r="B162" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D162" s="5">
+        <v>32</v>
+      </c>
+      <c r="E162" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D162" s="5">
-        <v>32</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -4937,16 +5025,16 @@
     <row r="163" spans="1:7">
       <c r="A163" s="13"/>
       <c r="B163" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D163" s="5">
         <v>6</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -4954,16 +5042,16 @@
     <row r="164" spans="1:7">
       <c r="A164" s="13"/>
       <c r="B164" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" s="5">
+        <v>32</v>
+      </c>
+      <c r="E164" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D164" s="5">
-        <v>32</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -4971,16 +5059,16 @@
     <row r="165" spans="1:7">
       <c r="A165" s="13"/>
       <c r="B165" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D165" s="5">
         <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -4988,16 +5076,16 @@
     <row r="166" spans="1:7">
       <c r="A166" s="14"/>
       <c r="B166" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D166" s="5">
         <v>255</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -5007,39 +5095,39 @@
         <v>0</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="12" t="s">
-        <v>308</v>
+      <c r="A170" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D170" s="5">
         <v>32</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -5047,16 +5135,16 @@
     <row r="171" spans="1:7">
       <c r="A171" s="13"/>
       <c r="B171" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D171" s="5">
         <v>32</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -5064,16 +5152,16 @@
     <row r="172" spans="1:7">
       <c r="A172" s="13"/>
       <c r="B172" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D172" s="5">
         <v>32</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -5081,16 +5169,16 @@
     <row r="173" spans="1:7">
       <c r="A173" s="13"/>
       <c r="B173" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D173" s="5">
         <v>32</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -5098,35 +5186,35 @@
     <row r="174" spans="1:7">
       <c r="A174" s="13"/>
       <c r="B174" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D174" s="5">
         <v>2</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="13"/>
       <c r="B175" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D175" s="5">
+        <v>32</v>
+      </c>
+      <c r="E175" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D175" s="5">
-        <v>32</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -5134,16 +5222,16 @@
     <row r="176" spans="1:7">
       <c r="A176" s="13"/>
       <c r="B176" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D176" s="5">
         <v>6</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -5151,16 +5239,16 @@
     <row r="177" spans="1:7">
       <c r="A177" s="13"/>
       <c r="B177" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D177" s="5">
+        <v>32</v>
+      </c>
+      <c r="E177" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D177" s="5">
-        <v>32</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -5168,16 +5256,16 @@
     <row r="178" spans="1:7">
       <c r="A178" s="13"/>
       <c r="B178" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D178" s="5">
         <v>6</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -5185,16 +5273,16 @@
     <row r="179" spans="1:7">
       <c r="A179" s="14"/>
       <c r="B179" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D179" s="5">
         <v>255</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -5204,39 +5292,39 @@
         <v>0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="15" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D183" s="5">
         <v>32</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -5244,16 +5332,16 @@
     <row r="184" spans="1:7">
       <c r="A184" s="13"/>
       <c r="B184" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D184" s="5">
         <v>32</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -5261,16 +5349,16 @@
     <row r="185" spans="1:7">
       <c r="A185" s="13"/>
       <c r="B185" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D185" s="5">
         <v>32</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -5278,16 +5366,16 @@
     <row r="186" spans="1:7">
       <c r="A186" s="13"/>
       <c r="B186" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" s="5">
+        <v>32</v>
+      </c>
+      <c r="E186" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D186" s="5">
-        <v>32</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -5295,16 +5383,16 @@
     <row r="187" spans="1:7">
       <c r="A187" s="13"/>
       <c r="B187" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D187" s="5">
         <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -5312,16 +5400,16 @@
     <row r="188" spans="1:7">
       <c r="A188" s="13"/>
       <c r="B188" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D188" s="5">
         <v>255</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -5329,16 +5417,16 @@
     <row r="189" spans="1:7">
       <c r="A189" s="13"/>
       <c r="B189" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D189" s="5">
         <v>18</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -5346,16 +5434,16 @@
     <row r="190" spans="1:7">
       <c r="A190" s="13"/>
       <c r="B190" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="5">
         <v>30</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -5363,35 +5451,35 @@
     <row r="191" spans="1:7">
       <c r="A191" s="13"/>
       <c r="B191" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D191" s="5">
         <v>2</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="13"/>
       <c r="B192" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" s="5">
+        <v>32</v>
+      </c>
+      <c r="E192" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D192" s="5">
-        <v>32</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -5399,16 +5487,16 @@
     <row r="193" spans="1:7">
       <c r="A193" s="13"/>
       <c r="B193" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D193" s="5">
         <v>6</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -5416,16 +5504,16 @@
     <row r="194" spans="1:7">
       <c r="A194" s="13"/>
       <c r="B194" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D194" s="5">
+        <v>32</v>
+      </c>
+      <c r="E194" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D194" s="5">
-        <v>32</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -5433,16 +5521,16 @@
     <row r="195" spans="1:7">
       <c r="A195" s="13"/>
       <c r="B195" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D195" s="5">
         <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -5450,16 +5538,16 @@
     <row r="196" spans="1:7">
       <c r="A196" s="14"/>
       <c r="B196" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D196" s="5">
         <v>255</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -5469,39 +5557,39 @@
         <v>0</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="12" t="s">
-        <v>341</v>
+      <c r="A200" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D200" s="5">
         <v>32</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -5509,16 +5597,16 @@
     <row r="201" spans="1:7">
       <c r="A201" s="13"/>
       <c r="B201" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D201" s="5">
         <v>32</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -5526,16 +5614,16 @@
     <row r="202" spans="1:7">
       <c r="A202" s="13"/>
       <c r="B202" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="5">
         <v>30</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -5543,16 +5631,16 @@
     <row r="203" spans="1:7">
       <c r="A203" s="13"/>
       <c r="B203" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D203" s="5">
         <v>6</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
@@ -5560,54 +5648,54 @@
     <row r="204" spans="1:7">
       <c r="A204" s="13"/>
       <c r="B204" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D204" s="5">
         <v>32</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="13"/>
       <c r="B205" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D205" s="5">
         <v>2</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="13"/>
       <c r="B206" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D206" s="5">
+        <v>32</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D206" s="5">
-        <v>32</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
@@ -5615,16 +5703,16 @@
     <row r="207" spans="1:7">
       <c r="A207" s="13"/>
       <c r="B207" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D207" s="5">
         <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
@@ -5632,16 +5720,16 @@
     <row r="208" spans="1:7">
       <c r="A208" s="13"/>
       <c r="B208" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D208" s="5">
+        <v>32</v>
+      </c>
+      <c r="E208" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D208" s="5">
-        <v>32</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
@@ -5649,16 +5737,16 @@
     <row r="209" spans="1:7">
       <c r="A209" s="13"/>
       <c r="B209" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D209" s="5">
         <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
@@ -5666,16 +5754,16 @@
     <row r="210" spans="1:7">
       <c r="A210" s="14"/>
       <c r="B210" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D210" s="5">
         <v>255</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
@@ -5685,39 +5773,39 @@
         <v>0</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="12" t="s">
-        <v>340</v>
+      <c r="A214" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D214" s="5">
         <v>32</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -5725,16 +5813,16 @@
     <row r="215" spans="1:7">
       <c r="A215" s="13"/>
       <c r="B215" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D215" s="5">
         <v>32</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -5742,16 +5830,16 @@
     <row r="216" spans="1:7">
       <c r="A216" s="13"/>
       <c r="B216" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D216" s="5">
         <v>32</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -5759,16 +5847,16 @@
     <row r="217" spans="1:7">
       <c r="A217" s="13"/>
       <c r="B217" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="5">
         <v>32</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -5776,16 +5864,16 @@
     <row r="218" spans="1:7">
       <c r="A218" s="13"/>
       <c r="B218" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D218" s="5">
         <v>6</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -5793,35 +5881,35 @@
     <row r="219" spans="1:7">
       <c r="A219" s="13"/>
       <c r="B219" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D219" s="5">
         <v>2</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="13"/>
       <c r="B220" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D220" s="5">
+        <v>32</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" s="5">
-        <v>32</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -5829,16 +5917,16 @@
     <row r="221" spans="1:7">
       <c r="A221" s="13"/>
       <c r="B221" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D221" s="5">
         <v>6</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -5846,16 +5934,16 @@
     <row r="222" spans="1:7">
       <c r="A222" s="13"/>
       <c r="B222" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D222" s="5">
+        <v>32</v>
+      </c>
+      <c r="E222" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D222" s="5">
-        <v>32</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -5863,16 +5951,16 @@
     <row r="223" spans="1:7">
       <c r="A223" s="13"/>
       <c r="B223" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D223" s="5">
         <v>6</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -5880,16 +5968,16 @@
     <row r="224" spans="1:7">
       <c r="A224" s="14"/>
       <c r="B224" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D224" s="5">
         <v>255</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -5899,39 +5987,39 @@
         <v>0</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="15" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D228" s="5">
         <v>32</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
@@ -5939,16 +6027,16 @@
     <row r="229" spans="1:7">
       <c r="A229" s="13"/>
       <c r="B229" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D229" s="5">
         <v>32</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
@@ -5956,87 +6044,111 @@
     <row r="230" spans="1:7">
       <c r="A230" s="13"/>
       <c r="B230" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D230" s="5">
+        <v>30</v>
+      </c>
       <c r="E230" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="13"/>
       <c r="B231" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
+        <v>340</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D231" s="5">
+        <v>255</v>
+      </c>
       <c r="E231" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="13"/>
       <c r="B232" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D232" s="5">
+        <v>2</v>
+      </c>
       <c r="E232" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="13"/>
       <c r="B233" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
+        <v>342</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D233" s="5">
+        <v>2</v>
+      </c>
       <c r="E233" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="13"/>
       <c r="B234" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
+        <v>343</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D234" s="5">
+        <v>32</v>
+      </c>
       <c r="E234" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="13"/>
       <c r="B235" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
+        <v>344</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D235" s="5">
+        <v>32</v>
+      </c>
       <c r="E235" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
@@ -6044,72 +6156,92 @@
     <row r="236" spans="1:7">
       <c r="A236" s="13"/>
       <c r="B236" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D236" s="5">
+        <v>6</v>
+      </c>
       <c r="E236" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="13"/>
       <c r="B237" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
+        <v>357</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D237" s="5">
+        <v>6</v>
+      </c>
       <c r="E237" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="13"/>
       <c r="B238" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
+        <v>359</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D238" s="5">
+        <v>6</v>
+      </c>
       <c r="E238" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="13"/>
       <c r="B239" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D239" s="5">
+        <v>3</v>
+      </c>
       <c r="E239" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="13"/>
       <c r="B240" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D240" s="5">
+        <v>6</v>
+      </c>
       <c r="E240" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -6117,12 +6249,16 @@
     <row r="241" spans="1:7">
       <c r="A241" s="13"/>
       <c r="B241" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D241" s="5">
+        <v>6</v>
+      </c>
       <c r="E241" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -6130,42 +6266,54 @@
     <row r="242" spans="1:7">
       <c r="A242" s="13"/>
       <c r="B242" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D242" s="5">
+        <v>2</v>
+      </c>
       <c r="E242" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="13"/>
       <c r="B243" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D243" s="5">
+        <v>2</v>
+      </c>
       <c r="E243" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="13"/>
       <c r="B244" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
+        <v>348</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D244" s="5">
+        <v>6</v>
+      </c>
       <c r="E244" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -6173,12 +6321,16 @@
     <row r="245" spans="1:7">
       <c r="A245" s="13"/>
       <c r="B245" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
+        <v>349</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D245" s="5">
+        <v>32</v>
+      </c>
       <c r="E245" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
@@ -6186,12 +6338,16 @@
     <row r="246" spans="1:7">
       <c r="A246" s="13"/>
       <c r="B246" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
+        <v>350</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D246" s="5">
+        <v>6</v>
+      </c>
       <c r="E246" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -6199,35 +6355,35 @@
     <row r="247" spans="1:7">
       <c r="A247" s="13"/>
       <c r="B247" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D247" s="5">
         <v>2</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="13"/>
       <c r="B248" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D248" s="5">
+        <v>32</v>
+      </c>
+      <c r="E248" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D248" s="5">
-        <v>32</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -6235,16 +6391,16 @@
     <row r="249" spans="1:7">
       <c r="A249" s="13"/>
       <c r="B249" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D249" s="5">
         <v>6</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -6252,16 +6408,16 @@
     <row r="250" spans="1:7">
       <c r="A250" s="13"/>
       <c r="B250" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D250" s="5">
+        <v>32</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D250" s="5">
-        <v>32</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
@@ -6269,16 +6425,16 @@
     <row r="251" spans="1:7">
       <c r="A251" s="13"/>
       <c r="B251" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D251" s="5">
         <v>6</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
@@ -6286,27 +6442,401 @@
     <row r="252" spans="1:7">
       <c r="A252" s="14"/>
       <c r="B252" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D252" s="5">
         <v>255</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
+    <row r="255" spans="1:7" s="4" customFormat="1">
+      <c r="A255" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D256" s="5">
+        <v>32</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="13"/>
+      <c r="B257" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D257" s="5">
+        <v>32</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="13"/>
+      <c r="B258" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D258" s="5">
+        <v>30</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="13"/>
+      <c r="B259" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D259" s="5">
+        <v>6</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="13"/>
+      <c r="B260" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D260" s="5">
+        <v>32</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="13"/>
+      <c r="B261" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D261" s="5">
+        <v>6</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="13"/>
+      <c r="B262" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D262" s="5">
+        <v>32</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="13"/>
+      <c r="B263" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D263" s="5">
+        <v>6</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="14"/>
+      <c r="B264" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D264" s="5">
+        <v>255</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="267" spans="1:7" s="4" customFormat="1">
+      <c r="A267" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D268" s="5">
+        <v>32</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="13"/>
+      <c r="B269" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D269" s="5">
+        <v>32</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="13"/>
+      <c r="B270" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D270" s="5">
+        <v>2</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="13"/>
+      <c r="B271" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D271" s="5">
+        <v>32</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="13"/>
+      <c r="B272" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D272" s="5">
+        <v>2</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="13"/>
+      <c r="B273" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D273" s="5">
+        <v>32</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="13"/>
+      <c r="B274" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D274" s="5">
+        <v>6</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="13"/>
+      <c r="B275" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D275" s="5">
+        <v>32</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="13"/>
+      <c r="B276" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D276" s="5">
+        <v>6</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="14"/>
+      <c r="B277" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D277" s="5">
+        <v>255</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A228:A252"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A51:A97"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A118:A128"/>
+  <mergeCells count="17">
+    <mergeCell ref="A256:A264"/>
+    <mergeCell ref="A268:A277"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="A28:A32"/>
@@ -6317,10 +6847,26 @@
     <mergeCell ref="A170:A179"/>
     <mergeCell ref="A183:A196"/>
     <mergeCell ref="A200:A210"/>
+    <mergeCell ref="A228:A252"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A51:A97"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A118:A128"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" location="Sheet1!A56" display="用户表"/>
+    <hyperlink ref="B6" location="Sheet1!A114" display="用户家教证件信息"/>
+    <hyperlink ref="B7" location="Sheet1!A128" display="用户家教成就信息"/>
+    <hyperlink ref="B8" location="Sheet1!A141" display="用户家教可教科目"/>
+    <hyperlink ref="B9" location="Sheet1!A154" display="用户喜好表"/>
+    <hyperlink ref="B10" location="Sheet1!A166" display="用户关注关系表"/>
+    <hyperlink ref="B13" location="Sheet1!A179" display="用户收藏表"/>
+    <hyperlink ref="B14" location="Sheet1!A196" display="用户地址表"/>
+    <hyperlink ref="B15" location="Sheet1!A210" display="用户登录记录表"/>
+    <hyperlink ref="B16" location="Sheet1!A224" display="用户浏览记录"/>
+    <hyperlink ref="B18" location="Sheet1!A252" display="任务表"/>
+    <hyperlink ref="B19" location="Sheet1!A264" display="任务分项表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$G$98</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="433">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>记录任务的每次改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当任务结束了之后，从任务表删除，存放到这里，留存记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1649,14 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_web_orderOperationRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr_web_orderOperationRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fr_web_orderItem
 任务分项表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1670,10 +1658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改类型，新增，任务开始前修改，任务途中修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RecordId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1687,6 +1671,99 @@
   </si>
   <si>
     <t>修改次数，新增的时候为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改类型，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.新增 10.任务开始前修改 20.任务途中修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationRecord
+任务操作记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分项修改记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录任务的每次分项的改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderUpdateRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史任务分项表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放历史的分项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderUpdateRecord
+任务修改记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItemUpdateRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItemUpdateRecord
+任务分项修改记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务结束了之后，从任务表删除，存放到这里，留存记录，任务在结束存放到历史表中的时候，主键要使用原来任务的主键，这样才能和原来的记录关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderHis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItemHis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderHis
+任务历史表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderItemHis
+任务分项修改历史表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderUpdateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderSupportType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_userType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1926,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1862,8 +1939,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1871,8 +1950,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1889,20 +1977,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2234,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N277"/>
+  <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="G271" sqref="G271"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2254,21 +2328,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -2283,14 +2357,14 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2307,27 +2381,27 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="21"/>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2341,15 +2415,15 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2363,15 +2437,15 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2385,12 +2459,12 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="21"/>
-      <c r="B9" s="25" t="s">
-        <v>397</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2407,15 +2481,15 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="21"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2429,15 +2503,15 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="21"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
@@ -2451,24 +2525,24 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25" t="s">
-        <v>398</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -2485,12 +2559,12 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="21"/>
-      <c r="B14" s="25" t="s">
-        <v>399</v>
+      <c r="A14" s="17"/>
+      <c r="B14" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -2507,15 +2581,15 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2529,12 +2603,12 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -2551,11 +2625,13 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="21"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2571,14 +2647,14 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>402</v>
+      <c r="B18" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2595,15 +2671,15 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26" t="s">
-        <v>375</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2617,12 +2693,12 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="22"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>37</v>
@@ -2639,7 +2715,7 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
@@ -2648,11 +2724,13 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2668,13 +2746,15 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="22"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>414</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2688,13 +2768,15 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="22"/>
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2708,13 +2790,15 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="22"/>
-      <c r="B25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="6"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2728,13 +2812,15 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="22"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2748,13 +2834,15 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="22"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2768,55 +2856,59 @@
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="18"/>
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="23"/>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="23"/>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2830,13 +2922,13 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="23"/>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="6"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2850,12 +2942,14 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="23"/>
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2868,55 +2962,53 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="19"/>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="24"/>
-      <c r="B34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="24"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2930,13 +3022,13 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="24"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2950,13 +3042,13 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="24"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2970,13 +3062,13 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="24"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="5" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2990,13 +3082,13 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="24"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3010,13 +3102,13 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="24"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3030,13 +3122,13 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="24"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3050,13 +3142,13 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="24"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3070,13 +3162,13 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="24"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="5" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3090,13 +3182,13 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="24"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="5" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3110,13 +3202,13 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="24"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3130,13 +3222,13 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="24"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3150,3708 +3242,5066 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="B47" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1">
-      <c r="A50" s="4" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="20"/>
+      <c r="B48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="F52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="4" t="s">
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="2">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1">
+      <c r="A54" s="24"/>
+      <c r="B54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="5">
+        <v>16</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1">
+      <c r="A56" s="24"/>
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="A57" s="24"/>
+      <c r="B57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="5">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1">
+      <c r="A58" s="24"/>
+      <c r="B58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="5">
+        <v>30</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="24"/>
+      <c r="B59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="2">
-        <v>32</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="C59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="5">
+        <v>18</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="5">
-        <v>16</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="G59" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1">
+      <c r="A60" s="24"/>
+      <c r="B60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="5">
+        <v>50</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="5">
         <v>1</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="5" customFormat="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="5">
-        <v>2</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="5">
-        <v>30</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="5">
-        <v>18</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="G60" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1">
+      <c r="A61" s="24"/>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="5">
+        <v>255</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1">
+      <c r="A62" s="24"/>
+      <c r="B62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="5">
+        <v>255</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1">
+      <c r="A63" s="24"/>
+      <c r="B63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="5">
+        <v>20</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="5">
         <v>1</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="5" customFormat="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="5">
-        <v>50</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="5">
-        <v>255</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="5">
-        <v>255</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="5">
-        <v>20</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="5">
-        <v>6</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="19"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D64" s="5">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="5">
-        <v>255</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1">
-      <c r="A66" s="19"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="5">
+        <v>255</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1">
+      <c r="A68" s="24"/>
+      <c r="B68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="A69" s="24"/>
+      <c r="B69" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="5">
-        <v>255</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1">
-      <c r="A70" s="19"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="5">
         <v>255</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="A71" s="19"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D71" s="5">
+        <v>2</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1">
+      <c r="A72" s="24"/>
+      <c r="B72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="5">
+        <v>255</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1">
+      <c r="A73" s="24"/>
+      <c r="B73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="5">
         <v>30</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="5" customFormat="1">
+      <c r="A74" s="24"/>
+      <c r="B74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="5" customFormat="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="5">
+    <row r="75" spans="1:7" s="5" customFormat="1">
+      <c r="A75" s="24"/>
+      <c r="B75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="5">
         <v>2</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="5" customFormat="1">
+      <c r="A76" s="24"/>
+      <c r="B76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="5">
+        <v>30</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="5" customFormat="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="5" t="s">
+    <row r="77" spans="1:7" s="5" customFormat="1">
+      <c r="A77" s="24"/>
+      <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="5">
-        <v>30</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="5">
-        <v>6</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="5" customFormat="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="5">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="5" customFormat="1">
+      <c r="A78" s="24"/>
+      <c r="B78" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1">
+      <c r="A79" s="24"/>
+      <c r="B79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="5">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1">
+      <c r="A80" s="24"/>
+      <c r="B80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="5">
+        <v>30</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" s="5" customFormat="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="5">
-        <v>30</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="5" customFormat="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="5">
-        <v>32</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="G80" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1">
+      <c r="A81" s="24"/>
+      <c r="B81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="5">
+        <v>32</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="24"/>
+      <c r="B82" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="5">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="5" customFormat="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="5" t="s">
+      <c r="G82" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="24"/>
+      <c r="B83" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D80" s="5">
-        <v>32</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="C83" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="5">
+        <v>32</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="5" t="s">
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="24"/>
+      <c r="B84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="5">
-        <v>32</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="D84" s="5">
+        <v>32</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="5" customFormat="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="5" t="s">
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="24"/>
+      <c r="B85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="5">
+        <v>32</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="24"/>
+      <c r="B86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="5">
-        <v>32</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="5">
-        <v>32</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G83" s="5" t="s">
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="5" customFormat="1">
-      <c r="A84" s="19"/>
-      <c r="B84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="5" t="s">
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="24"/>
+      <c r="B87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="5">
-        <v>32</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G84" s="5" t="s">
+      <c r="D87" s="5">
+        <v>32</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="5" t="s">
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="24"/>
+      <c r="B88" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="5">
+        <v>32</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="24"/>
+      <c r="B89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D85" s="5">
-        <v>32</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="5" customFormat="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" s="5">
-        <v>32</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="D89" s="5">
+        <v>32</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="5" t="s">
+      <c r="G89" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1">
+      <c r="A90" s="24"/>
+      <c r="B90" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D87" s="5">
-        <v>32</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1">
-      <c r="A88" s="19"/>
-      <c r="B88" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="5" t="s">
+    <row r="91" spans="1:7" s="5" customFormat="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D91" s="5">
+        <v>32</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="5">
+        <v>255</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="5">
+        <v>255</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1">
+      <c r="A94" s="24"/>
+      <c r="B94" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="5">
         <v>2</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="5" customFormat="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="5">
-        <v>32</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="5" customFormat="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" s="5">
-        <v>255</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="5" customFormat="1">
-      <c r="A91" s="19"/>
-      <c r="B91" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="5">
-        <v>255</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="5" customFormat="1">
-      <c r="A92" s="19"/>
-      <c r="B92" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="G94" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1">
+      <c r="A95" s="24"/>
+      <c r="B95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="5">
+        <v>32</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1">
+      <c r="A96" s="24"/>
+      <c r="B96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D92" s="5">
-        <v>2</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1">
-      <c r="A93" s="19"/>
-      <c r="B93" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="5">
-        <v>32</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1">
-      <c r="A94" s="19"/>
-      <c r="B94" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="5">
-        <v>6</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="5" customFormat="1">
-      <c r="A95" s="19"/>
-      <c r="B95" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="5">
-        <v>32</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1">
-      <c r="A96" s="19"/>
-      <c r="B96" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D96" s="5">
         <v>6</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="20"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1">
+      <c r="A97" s="24"/>
       <c r="B97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="5">
+        <v>32</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1">
+      <c r="A98" s="24"/>
+      <c r="B98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="5">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="25"/>
+      <c r="B99" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="5">
+        <v>255</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="5">
-        <v>255</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1">
+      <c r="A102" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C102" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="F102" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="5" t="s">
+    </row>
+    <row r="103" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A103" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="5">
+        <v>32</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="21"/>
+      <c r="B104" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D101" s="5">
-        <v>32</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="16"/>
-      <c r="B102" s="5" t="s">
+      <c r="C104" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="5">
+        <v>32</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="5">
-        <v>32</v>
-      </c>
-      <c r="E102" s="5" t="s">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="21"/>
+      <c r="B105" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="16"/>
-      <c r="B103" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D103" s="5">
-        <v>50</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="16"/>
-      <c r="B104" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="5">
-        <v>32</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="16"/>
-      <c r="B105" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D105" s="5">
         <v>50</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="16"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="16"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="D107" s="5">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="16"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="D108" s="5">
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="16"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="5" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D109" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="16"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="5" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="D110" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
+      <c r="G110" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="16"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D111" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
+      <c r="G111" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="16"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D112" s="5">
         <v>32</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="16"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="5">
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="17"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D114" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="117" spans="1:7" s="4" customFormat="1">
-      <c r="A117" s="4" t="s">
+    <row r="115" spans="1:7">
+      <c r="A115" s="21"/>
+      <c r="B115" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="5">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="22"/>
+      <c r="B116" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="5">
+        <v>255</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1">
+      <c r="A119" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B119" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="F119" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A118" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="5">
-        <v>32</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="16"/>
-      <c r="B119" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="5">
-        <v>32</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="16"/>
+    </row>
+    <row r="120" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A120" s="14" t="s">
+        <v>271</v>
+      </c>
       <c r="B120" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D120" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="16"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D121" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="16"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D122" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="16"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="5" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="D123" s="5">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="16"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="D124" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="16"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D125" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="G125" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="16"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="5">
         <v>32</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="16"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="5">
         <v>6</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="17"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D128" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="131" spans="1:7" s="4" customFormat="1">
-      <c r="A131" s="4" t="s">
+    <row r="129" spans="1:7">
+      <c r="A129" s="21"/>
+      <c r="B129" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="5">
+        <v>6</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="22"/>
+      <c r="B130" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D130" s="5">
+        <v>255</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1">
+      <c r="A133" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B133" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="F133" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="15" t="s">
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" s="5">
+        <v>32</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="21"/>
+      <c r="B135" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" s="5">
+        <v>32</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="21"/>
+      <c r="B136" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="5">
+        <v>32</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D132" s="5">
-        <v>32</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="16"/>
-      <c r="B133" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="5">
-        <v>32</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="16"/>
-      <c r="B134" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D134" s="5">
-        <v>32</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="16"/>
-      <c r="B135" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" s="5">
-        <v>32</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="16"/>
-      <c r="B136" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D136" s="5">
-        <v>2</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="16"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="5" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D137" s="5">
         <v>32</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="G137" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="16"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D138" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
+      <c r="G138" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="16"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D139" s="5">
         <v>32</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="16"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D140" s="5">
         <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="17"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D141" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="144" spans="1:7" s="4" customFormat="1">
-      <c r="A144" s="4" t="s">
+    <row r="142" spans="1:7">
+      <c r="A142" s="21"/>
+      <c r="B142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D142" s="5">
+        <v>6</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="22"/>
+      <c r="B143" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D143" s="5">
+        <v>255</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="146" spans="1:7" s="4" customFormat="1">
+      <c r="A146" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B146" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="F146" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D145" s="5">
-        <v>32</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="13"/>
-      <c r="B146" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D146" s="5">
-        <v>32</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="13"/>
+      <c r="A147" s="14" t="s">
+        <v>284</v>
+      </c>
       <c r="B147" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D147" s="5">
         <v>32</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="13"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D148" s="5">
         <v>32</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="13"/>
+      <c r="A149" s="15"/>
       <c r="B149" s="5" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D149" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="13"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="5" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D150" s="5">
         <v>32</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="13"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D151" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
+      <c r="G151" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="13"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D152" s="5">
         <v>32</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="13"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153" s="5">
         <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="14"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D154" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="157" spans="1:7" s="4" customFormat="1">
-      <c r="A157" s="4" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" s="15"/>
+      <c r="B155" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="5">
+        <v>6</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="16"/>
+      <c r="B156" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D156" s="5">
+        <v>255</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="159" spans="1:7" s="4" customFormat="1">
+      <c r="A159" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="F159" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G159" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D158" s="5">
-        <v>32</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="13"/>
-      <c r="B159" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D159" s="5">
-        <v>32</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="13"/>
+      <c r="A160" s="14" t="s">
+        <v>295</v>
+      </c>
       <c r="B160" s="5" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D160" s="5">
         <v>32</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="13"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="5" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D161" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="F161" s="5"/>
-      <c r="G161" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="13"/>
+      <c r="A162" s="15"/>
       <c r="B162" s="5" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D162" s="5">
         <v>32</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="13"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D163" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
+      <c r="G163" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="13"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D164" s="5">
         <v>32</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="13"/>
+      <c r="A165" s="15"/>
       <c r="B165" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D165" s="5">
         <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="14"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D166" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="169" spans="1:7" s="4" customFormat="1">
-      <c r="A169" s="4" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" s="15"/>
+      <c r="B167" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="5">
+        <v>6</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="16"/>
+      <c r="B168" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D168" s="5">
+        <v>255</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="171" spans="1:7" s="4" customFormat="1">
+      <c r="A171" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B171" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="F171" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D170" s="5">
-        <v>32</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="13"/>
-      <c r="B171" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D171" s="5">
-        <v>32</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="13"/>
+      <c r="A172" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="B172" s="5" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" s="5">
         <v>32</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="13"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="5" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D173" s="5">
         <v>32</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="13"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="5" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D174" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="F174" s="5"/>
-      <c r="G174" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G174" s="5"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="13"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="5" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D175" s="5">
         <v>32</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="13"/>
+      <c r="A176" s="15"/>
       <c r="B176" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D176" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
+      <c r="G176" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="13"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D177" s="5">
         <v>32</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="13"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D178" s="5">
         <v>6</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="14"/>
+      <c r="A179" s="15"/>
       <c r="B179" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D179" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="182" spans="1:7" s="4" customFormat="1">
-      <c r="A182" s="4" t="s">
+    <row r="180" spans="1:7">
+      <c r="A180" s="15"/>
+      <c r="B180" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" s="5">
+        <v>6</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="16"/>
+      <c r="B181" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D181" s="5">
+        <v>255</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="184" spans="1:7" s="4" customFormat="1">
+      <c r="A184" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B184" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="F184" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D183" s="5">
-        <v>32</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="13"/>
-      <c r="B184" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D184" s="5">
-        <v>32</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="13"/>
+      <c r="A185" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="B185" s="5" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D185" s="5">
         <v>32</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="13"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="5" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D186" s="5">
         <v>32</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="13"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D187" s="5">
         <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="13"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D188" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="13"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D189" s="5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="13"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D190" s="5">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="13"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="5" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D191" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="F191" s="5"/>
-      <c r="G191" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G191" s="5"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="13"/>
+      <c r="A192" s="15"/>
       <c r="B192" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D192" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="13"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D193" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
+      <c r="G193" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="13"/>
+      <c r="A194" s="15"/>
       <c r="B194" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D194" s="5">
         <v>32</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="13"/>
+      <c r="A195" s="15"/>
       <c r="B195" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D195" s="5">
         <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="14"/>
+      <c r="A196" s="15"/>
       <c r="B196" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D196" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="199" spans="1:7" s="4" customFormat="1">
-      <c r="A199" s="4" t="s">
+    <row r="197" spans="1:7">
+      <c r="A197" s="15"/>
+      <c r="B197" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D197" s="5">
+        <v>6</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="16"/>
+      <c r="B198" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D198" s="5">
+        <v>255</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+    </row>
+    <row r="201" spans="1:7" s="4" customFormat="1">
+      <c r="A201" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B201" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="F201" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D200" s="5">
-        <v>32</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="13"/>
-      <c r="B201" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D201" s="5">
-        <v>32</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="13"/>
+      <c r="A202" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="B202" s="5" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D202" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="13"/>
+      <c r="A203" s="15"/>
       <c r="B203" s="5" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D203" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="13"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D204" s="5">
+        <v>30</v>
+      </c>
+      <c r="E204" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D204" s="5">
-        <v>32</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="F204" s="5"/>
-      <c r="G204" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="G204" s="5"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="13"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="5" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D205" s="5">
+        <v>6</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="15"/>
+      <c r="B206" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D206" s="5">
+        <v>32</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="15"/>
+      <c r="B207" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D207" s="5">
         <v>2</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="13"/>
-      <c r="B206" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D206" s="5">
-        <v>32</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="13"/>
-      <c r="B207" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D207" s="5">
-        <v>6</v>
-      </c>
       <c r="E207" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
+      <c r="G207" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="13"/>
+      <c r="A208" s="15"/>
       <c r="B208" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D208" s="5">
         <v>32</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="13"/>
+      <c r="A209" s="15"/>
       <c r="B209" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D209" s="5">
         <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="14"/>
+      <c r="A210" s="15"/>
       <c r="B210" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D210" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="213" spans="1:7" s="4" customFormat="1">
-      <c r="A213" s="4" t="s">
+    <row r="211" spans="1:7">
+      <c r="A211" s="15"/>
+      <c r="B211" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D211" s="5">
+        <v>6</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="16"/>
+      <c r="B212" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D212" s="5">
+        <v>255</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+    </row>
+    <row r="215" spans="1:7" s="4" customFormat="1">
+      <c r="A215" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B215" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="F215" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D214" s="5">
-        <v>32</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="13"/>
-      <c r="B215" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D215" s="5">
-        <v>32</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="13"/>
+      <c r="A216" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="B216" s="5" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D216" s="5">
         <v>32</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="13"/>
+      <c r="A217" s="15"/>
       <c r="B217" s="5" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D217" s="5">
         <v>32</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="13"/>
+      <c r="A218" s="15"/>
       <c r="B218" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="D218" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="13"/>
+      <c r="A219" s="15"/>
       <c r="B219" s="5" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D219" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="F219" s="5"/>
-      <c r="G219" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G219" s="5"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="13"/>
+      <c r="A220" s="15"/>
       <c r="B220" s="5" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="D220" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="13"/>
+      <c r="A221" s="15"/>
       <c r="B221" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D221" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
+      <c r="G221" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="13"/>
+      <c r="A222" s="15"/>
       <c r="B222" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D222" s="5">
         <v>32</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="13"/>
+      <c r="A223" s="15"/>
       <c r="B223" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D223" s="5">
         <v>6</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="14"/>
+      <c r="A224" s="15"/>
       <c r="B224" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D224" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="227" spans="1:7" s="4" customFormat="1">
-      <c r="A227" s="4" t="s">
+    <row r="225" spans="1:7">
+      <c r="A225" s="15"/>
+      <c r="B225" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D225" s="5">
+        <v>6</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="16"/>
+      <c r="B226" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D226" s="5">
+        <v>255</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+    </row>
+    <row r="229" spans="1:7" s="4" customFormat="1">
+      <c r="A229" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B229" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="F229" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G229" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D228" s="5">
-        <v>32</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="13"/>
-      <c r="B229" s="5" t="s">
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D230" s="5">
+        <v>32</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="15"/>
+      <c r="B231" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D231" s="5">
+        <v>32</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D229" s="5">
-        <v>32</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="13"/>
-      <c r="B230" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D230" s="5">
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="15"/>
+      <c r="B232" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D232" s="5">
         <v>30</v>
       </c>
-      <c r="E230" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="13"/>
-      <c r="B231" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D231" s="5">
-        <v>255</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="13"/>
-      <c r="B232" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D232" s="5">
-        <v>2</v>
-      </c>
       <c r="E232" s="5" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="13"/>
+      <c r="A233" s="15"/>
       <c r="B233" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D233" s="5">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="13"/>
+      <c r="A234" s="15"/>
       <c r="B234" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="D234" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="13"/>
+      <c r="A235" s="15"/>
       <c r="B235" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="D235" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="G235" s="5" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="13"/>
+      <c r="A236" s="15"/>
       <c r="B236" s="5" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>385</v>
+        <v>130</v>
       </c>
       <c r="D236" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="13"/>
+      <c r="A237" s="15"/>
       <c r="B237" s="5" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>385</v>
+        <v>130</v>
       </c>
       <c r="D237" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F237" s="5"/>
-      <c r="G237" s="5" t="s">
-        <v>391</v>
-      </c>
+      <c r="G237" s="5"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="13"/>
+      <c r="A238" s="15"/>
       <c r="B238" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D238" s="5">
         <v>6</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="13"/>
+      <c r="A239" s="15"/>
       <c r="B239" s="5" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>384</v>
       </c>
       <c r="D239" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="13"/>
+      <c r="A240" s="15"/>
       <c r="B240" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D240" s="5">
         <v>6</v>
       </c>
       <c r="E240" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="15"/>
+      <c r="B241" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D241" s="5">
+        <v>3</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="15"/>
+      <c r="B242" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D242" s="5">
+        <v>6</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="15"/>
+      <c r="B243" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D243" s="5">
+        <v>6</v>
+      </c>
+      <c r="E243" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="13"/>
-      <c r="B241" s="5" t="s">
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="15"/>
+      <c r="B244" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D241" s="5">
-        <v>6</v>
-      </c>
-      <c r="E241" s="5" t="s">
+      <c r="C244" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D244" s="5">
+        <v>2</v>
+      </c>
+      <c r="E244" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="13"/>
-      <c r="B242" s="5" t="s">
+      <c r="F244" s="5"/>
+      <c r="G244" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="15"/>
+      <c r="B245" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D242" s="5">
+      <c r="C245" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D245" s="5">
         <v>2</v>
       </c>
-      <c r="E242" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="13"/>
-      <c r="B243" s="5" t="s">
+      <c r="E245" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="15"/>
+      <c r="B246" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D243" s="5">
-        <v>2</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="13"/>
-      <c r="B244" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D244" s="5">
-        <v>6</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="13"/>
-      <c r="B245" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D245" s="5">
-        <v>32</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="13"/>
-      <c r="B246" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="C246" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D246" s="5">
         <v>6</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="13"/>
+      <c r="A247" s="15"/>
       <c r="B247" s="5" t="s">
-        <v>137</v>
+        <v>348</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D247" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="F247" s="5"/>
-      <c r="G247" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="G247" s="5"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="13"/>
+      <c r="A248" s="15"/>
       <c r="B248" s="5" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="D248" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="13"/>
+      <c r="A249" s="15"/>
       <c r="B249" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D249" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
+      <c r="G249" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="13"/>
+      <c r="A250" s="15"/>
       <c r="B250" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D250" s="5">
         <v>32</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="13"/>
+      <c r="A251" s="15"/>
       <c r="B251" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D251" s="5">
         <v>6</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="14"/>
+      <c r="A252" s="15"/>
       <c r="B252" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D252" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="255" spans="1:7" s="4" customFormat="1">
-      <c r="A255" s="4" t="s">
+    <row r="253" spans="1:7">
+      <c r="A253" s="15"/>
+      <c r="B253" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D253" s="5">
+        <v>6</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="16"/>
+      <c r="B254" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D254" s="5">
+        <v>255</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="257" spans="1:7" s="4" customFormat="1">
+      <c r="A257" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B257" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E257" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="F257" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G257" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D256" s="5">
-        <v>32</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="13"/>
-      <c r="B257" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D257" s="5">
-        <v>32</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="13"/>
+      <c r="A258" s="14" t="s">
+        <v>404</v>
+      </c>
       <c r="B258" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D258" s="5">
+        <v>32</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="15"/>
+      <c r="B259" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D259" s="5">
+        <v>32</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="15"/>
+      <c r="B260" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D260" s="5">
+        <v>30</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="15"/>
+      <c r="B261" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D258" s="5">
-        <v>30</v>
-      </c>
-      <c r="E258" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="13"/>
-      <c r="B259" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D259" s="5">
-        <v>6</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="13"/>
-      <c r="B260" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D260" s="5">
-        <v>32</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="13"/>
-      <c r="B261" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D261" s="5">
         <v>6</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
+      <c r="G261" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="13"/>
+      <c r="A262" s="15"/>
       <c r="B262" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D262" s="5">
         <v>32</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="13"/>
+      <c r="A263" s="15"/>
       <c r="B263" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D263" s="5">
         <v>6</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="14"/>
+      <c r="A264" s="15"/>
       <c r="B264" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D264" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="267" spans="1:7" s="4" customFormat="1">
-      <c r="A267" s="4" t="s">
+    <row r="265" spans="1:7">
+      <c r="A265" s="15"/>
+      <c r="B265" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D265" s="5">
+        <v>6</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="16"/>
+      <c r="B266" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D266" s="5">
+        <v>255</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="269" spans="1:7" s="4" customFormat="1">
+      <c r="A269" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B269" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="F269" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G269" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D268" s="5">
-        <v>32</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F268" s="5"/>
-      <c r="G268" s="5"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="13"/>
-      <c r="B269" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D269" s="5">
-        <v>32</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F269" s="5"/>
-      <c r="G269" s="5"/>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="13"/>
+      <c r="A270" s="14" t="s">
+        <v>413</v>
+      </c>
       <c r="B270" s="5" t="s">
-        <v>409</v>
+        <v>170</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D270" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="13"/>
+      <c r="A271" s="15"/>
       <c r="B271" s="5" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D271" s="5">
         <v>32</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>412</v>
+        <v>216</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="13"/>
+      <c r="A272" s="15"/>
       <c r="B272" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D272" s="5">
         <v>2</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
+      <c r="G272" s="5" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="13"/>
+      <c r="A273" s="15"/>
       <c r="B273" s="5" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D273" s="5">
         <v>32</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="13"/>
+      <c r="A274" s="15"/>
       <c r="B274" s="5" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D274" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>128</v>
+        <v>410</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="13"/>
+      <c r="A275" s="15"/>
       <c r="B275" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D275" s="5">
         <v>32</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="13"/>
+      <c r="A276" s="15"/>
       <c r="B276" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D276" s="5">
         <v>6</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="14"/>
+      <c r="A277" s="15"/>
       <c r="B277" s="5" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D277" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="15"/>
+      <c r="B278" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D278" s="5">
+        <v>6</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="16"/>
+      <c r="B279" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D279" s="5">
+        <v>255</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="282" spans="1:7" s="4" customFormat="1">
+      <c r="A282" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D283" s="5">
+        <v>32</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="15"/>
+      <c r="B284" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D284" s="5">
+        <v>32</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="15"/>
+      <c r="B285" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D285" s="5">
+        <v>30</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="15"/>
+      <c r="B286" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D286" s="5">
+        <v>255</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="15"/>
+      <c r="B287" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D287" s="5">
+        <v>2</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="15"/>
+      <c r="B288" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D288" s="5">
+        <v>2</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="15"/>
+      <c r="B289" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D289" s="5">
+        <v>32</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="15"/>
+      <c r="B290" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D290" s="5">
+        <v>32</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="15"/>
+      <c r="B291" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D291" s="5">
+        <v>6</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="15"/>
+      <c r="B292" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D292" s="5">
+        <v>6</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="15"/>
+      <c r="B293" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D293" s="5">
+        <v>6</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="15"/>
+      <c r="B294" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D294" s="5">
+        <v>3</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="15"/>
+      <c r="B295" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D295" s="5">
+        <v>6</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="15"/>
+      <c r="B296" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D296" s="5">
+        <v>6</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="15"/>
+      <c r="B297" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D297" s="5">
+        <v>2</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="15"/>
+      <c r="B298" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D298" s="5">
+        <v>2</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="15"/>
+      <c r="B299" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D299" s="5">
+        <v>6</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="15"/>
+      <c r="B300" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D300" s="5">
+        <v>32</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="15"/>
+      <c r="B301" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D301" s="5">
+        <v>6</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="15"/>
+      <c r="B302" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D302" s="5">
+        <v>2</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="15"/>
+      <c r="B303" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D303" s="5">
+        <v>32</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="15"/>
+      <c r="B304" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D304" s="5">
+        <v>6</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="15"/>
+      <c r="B305" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D305" s="5">
+        <v>32</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="15"/>
+      <c r="B306" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D306" s="5">
+        <v>6</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="16"/>
+      <c r="B307" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D307" s="5">
+        <v>255</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D311" s="5">
+        <v>32</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="15"/>
+      <c r="B312" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D312" s="5">
+        <v>32</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="15"/>
+      <c r="B313" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D313" s="5">
+        <v>30</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="15"/>
+      <c r="B314" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D314" s="5">
+        <v>6</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="15"/>
+      <c r="B315" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D315" s="5">
+        <v>32</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="15"/>
+      <c r="B316" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D316" s="5">
+        <v>6</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="15"/>
+      <c r="B317" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D317" s="5">
+        <v>32</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="15"/>
+      <c r="B318" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D318" s="5">
+        <v>6</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="16"/>
+      <c r="B319" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D319" s="5">
+        <v>255</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D323" s="5">
+        <v>32</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="15"/>
+      <c r="B324" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D324" s="5">
+        <v>32</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="15"/>
+      <c r="B325" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D325" s="5">
+        <v>30</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="15"/>
+      <c r="B326" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D326" s="5">
+        <v>255</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="15"/>
+      <c r="B327" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D327" s="5">
+        <v>2</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="15"/>
+      <c r="B328" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D328" s="5">
+        <v>2</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="15"/>
+      <c r="B329" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D329" s="5">
+        <v>32</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="15"/>
+      <c r="B330" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D330" s="5">
+        <v>32</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="15"/>
+      <c r="B331" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D331" s="5">
+        <v>6</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="15"/>
+      <c r="B332" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D332" s="5">
+        <v>6</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="15"/>
+      <c r="B333" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D333" s="5">
+        <v>6</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="15"/>
+      <c r="B334" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D334" s="5">
+        <v>3</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="15"/>
+      <c r="B335" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D335" s="5">
+        <v>6</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="15"/>
+      <c r="B336" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D336" s="5">
+        <v>6</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="15"/>
+      <c r="B337" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D337" s="5">
+        <v>2</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="15"/>
+      <c r="B338" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D338" s="5">
+        <v>2</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="15"/>
+      <c r="B339" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D339" s="5">
+        <v>6</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="15"/>
+      <c r="B340" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D340" s="5">
+        <v>32</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="15"/>
+      <c r="B341" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D341" s="5">
+        <v>6</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="15"/>
+      <c r="B342" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D342" s="5">
+        <v>2</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="15"/>
+      <c r="B343" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D343" s="5">
+        <v>32</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="15"/>
+      <c r="B344" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D344" s="5">
+        <v>6</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="15"/>
+      <c r="B345" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D345" s="5">
+        <v>32</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="15"/>
+      <c r="B346" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D346" s="5">
+        <v>6</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="16"/>
+      <c r="B347" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D347" s="5">
+        <v>255</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D351" s="5">
+        <v>32</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="15"/>
+      <c r="B352" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D352" s="5">
+        <v>32</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="15"/>
+      <c r="B353" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D353" s="5">
+        <v>30</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="15"/>
+      <c r="B354" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D354" s="5">
+        <v>6</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="15"/>
+      <c r="B355" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D355" s="5">
+        <v>32</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="15"/>
+      <c r="B356" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D356" s="5">
+        <v>6</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="15"/>
+      <c r="B357" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D357" s="5">
+        <v>32</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="15"/>
+      <c r="B358" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D358" s="5">
+        <v>6</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="16"/>
+      <c r="B359" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D359" s="5">
+        <v>255</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A256:A264"/>
-    <mergeCell ref="A268:A277"/>
+  <mergeCells count="21">
+    <mergeCell ref="A120:A130"/>
+    <mergeCell ref="A283:A307"/>
+    <mergeCell ref="A311:A319"/>
+    <mergeCell ref="A351:A359"/>
+    <mergeCell ref="A323:A347"/>
+    <mergeCell ref="A258:A266"/>
+    <mergeCell ref="A270:A279"/>
     <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="A214:A224"/>
-    <mergeCell ref="A145:A154"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="A183:A196"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="A228:A252"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A51:A97"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A118:A128"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A48"/>
+    <mergeCell ref="A216:A226"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="A202:A212"/>
+    <mergeCell ref="A230:A254"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="A53:A99"/>
+    <mergeCell ref="A103:A116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="460">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,9 +865,6 @@
   <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr_web_certificate</t>
   </si>
   <si>
     <t>CertificateType</t>
@@ -1725,10 +1722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当任务结束了之后，从任务表删除，存放到这里，留存记录，任务在结束存放到历史表中的时候，主键要使用原来任务的主键，这样才能和原来的记录关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fr_web_orderHis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1764,6 +1757,123 @@
   </si>
   <si>
     <t>fr_web_userType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Invitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Invitation
+邀请信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请发起人外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请信息外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被邀请人外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_problemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_NPRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_BasicsData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_BusinessType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_payType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_CollectionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_certificateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_SubjectChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_limitContrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_ReportType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时跳过原因：不确定要不要子表，就是被邀请用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务结束了之后，从任务表删除，存放到这里，留存记录，任务在结束存放到历史表中的时候，主键要使用原来任务的主键，这样才能和原来的修改记录关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1926,7 +2036,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1942,6 +2052,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,12 +2078,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,6 +2086,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2308,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2328,21 +2441,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -2357,7 +2470,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2381,7 +2494,7 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="9" t="s">
         <v>87</v>
       </c>
@@ -2393,12 +2506,12 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>212</v>
+        <v>451</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>90</v>
@@ -2415,12 +2528,12 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="12" t="s">
         <v>175</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>176</v>
@@ -2437,12 +2550,12 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>182</v>
@@ -2459,12 +2572,12 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2481,15 +2594,15 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2503,12 +2616,12 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>112</v>
@@ -2525,24 +2638,24 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -2559,12 +2672,12 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -2581,12 +2694,12 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>82</v>
@@ -2603,12 +2716,12 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -2625,12 +2738,12 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -2647,14 +2760,14 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2671,15 +2784,15 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2693,12 +2806,12 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>37</v>
@@ -2715,7 +2828,7 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
@@ -2724,12 +2837,12 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -2746,15 +2859,15 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2768,15 +2881,15 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2790,15 +2903,15 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2812,12 +2925,12 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>40</v>
@@ -2834,12 +2947,12 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>42</v>
@@ -2856,12 +2969,12 @@
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>41</v>
@@ -2878,12 +2991,12 @@
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>43</v>
@@ -2900,13 +3013,15 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2922,11 +3037,13 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="19"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,32 +3058,29 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="19"/>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:14" s="5" customFormat="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="H32" s="5" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2982,11 +3096,13 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3000,13 +3116,15 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="D35" s="5" t="s">
         <v>48</v>
       </c>
@@ -3022,11 +3140,13 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="D36" s="5" t="s">
         <v>84</v>
       </c>
@@ -3042,11 +3162,13 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="D37" s="5" t="s">
         <v>49</v>
       </c>
@@ -3062,11 +3184,13 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="D38" s="5" t="s">
         <v>50</v>
       </c>
@@ -3082,11 +3206,13 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="D39" s="5" t="s">
         <v>204</v>
       </c>
@@ -3102,13 +3228,15 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="20"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3122,11 +3250,13 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="D41" s="5" t="s">
         <v>51</v>
       </c>
@@ -3142,11 +3272,13 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="20"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="D42" s="5" t="s">
         <v>173</v>
       </c>
@@ -3162,11 +3294,13 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>92</v>
       </c>
@@ -3182,11 +3316,13 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="20"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="D44" s="5" t="s">
         <v>179</v>
       </c>
@@ -3202,11 +3338,13 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="20"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="D45" s="5" t="s">
         <v>180</v>
       </c>
@@ -3222,11 +3360,13 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="20"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="D46" s="5" t="s">
         <v>140</v>
       </c>
@@ -3242,11 +3382,13 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="20"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="D47" s="5" t="s">
         <v>52</v>
       </c>
@@ -3262,11 +3404,13 @@
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="20"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>53</v>
       </c>
@@ -3283,7 +3427,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="4" customFormat="1">
@@ -3311,7 +3455,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -3839,7 +3983,7 @@
         <v>183</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1">
@@ -3854,10 +3998,10 @@
         <v>32</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1">
@@ -3875,7 +4019,7 @@
         <v>186</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="5" customFormat="1">
@@ -3893,7 +4037,7 @@
         <v>188</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="5" customFormat="1">
@@ -3911,7 +4055,7 @@
         <v>190</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="5" customFormat="1">
@@ -3929,7 +4073,7 @@
         <v>192</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="5" customFormat="1">
@@ -3947,7 +4091,7 @@
         <v>194</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1">
@@ -3962,10 +4106,10 @@
         <v>32</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1">
@@ -3980,10 +4124,10 @@
         <v>32</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="5" customFormat="1">
@@ -4001,7 +4145,7 @@
         <v>198</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="5" customFormat="1">
@@ -4019,31 +4163,31 @@
         <v>200</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1">
       <c r="A92" s="24"/>
       <c r="B92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="D92" s="5">
         <v>255</v>
       </c>
       <c r="E92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1">
       <c r="A93" s="24"/>
       <c r="B93" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>130</v>
@@ -4055,7 +4199,7 @@
         <v>201</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1">
@@ -4139,16 +4283,16 @@
     <row r="99" spans="1:7">
       <c r="A99" s="25"/>
       <c r="B99" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" s="5">
         <v>255</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -4178,13 +4322,13 @@
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
       <c r="A103" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" s="5">
         <v>32</v>
@@ -4196,45 +4340,45 @@
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="21"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="5">
+        <v>32</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="5">
-        <v>32</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="21"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" s="5">
         <v>50</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="21"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>130</v>
@@ -4243,36 +4387,36 @@
         <v>32</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="21"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D107" s="5">
         <v>50</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="21"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>133</v>
@@ -4281,53 +4425,53 @@
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="21"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="5">
+        <v>32</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" s="5">
-        <v>32</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="21"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D110" s="5">
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="21"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="5" t="s">
         <v>136</v>
       </c>
@@ -4346,7 +4490,7 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="21"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="5" t="s">
         <v>122</v>
       </c>
@@ -4363,7 +4507,7 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="21"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="5" t="s">
         <v>123</v>
       </c>
@@ -4380,7 +4524,7 @@
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="21"/>
+      <c r="A114" s="15"/>
       <c r="B114" s="5" t="s">
         <v>124</v>
       </c>
@@ -4397,7 +4541,7 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="21"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="5" t="s">
         <v>125</v>
       </c>
@@ -4414,18 +4558,18 @@
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="22"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D116" s="5">
         <v>255</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -4455,10 +4599,10 @@
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>130</v>
@@ -4473,9 +4617,9 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="21"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>130</v>
@@ -4484,64 +4628,64 @@
         <v>32</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="21"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="D122" s="5">
         <v>30</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="21"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D123" s="5">
         <v>255</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="21"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="D124" s="5">
         <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="21"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="5" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +4704,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="21"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="5" t="s">
         <v>122</v>
       </c>
@@ -4577,7 +4721,7 @@
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="21"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="5" t="s">
         <v>123</v>
       </c>
@@ -4594,7 +4738,7 @@
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="21"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="5" t="s">
         <v>124</v>
       </c>
@@ -4611,7 +4755,7 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="21"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="5" t="s">
         <v>125</v>
       </c>
@@ -4628,18 +4772,18 @@
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="22"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D130" s="5">
         <v>255</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -4669,10 +4813,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>130</v>
@@ -4687,9 +4831,9 @@
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="21"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>130</v>
@@ -4698,15 +4842,15 @@
         <v>32</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="21"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>130</v>
@@ -4715,17 +4859,17 @@
         <v>32</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="21"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>130</v>
@@ -4734,15 +4878,15 @@
         <v>32</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="21"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="5" t="s">
         <v>136</v>
       </c>
@@ -4761,7 +4905,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="21"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="5" t="s">
         <v>122</v>
       </c>
@@ -4778,7 +4922,7 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="21"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="5" t="s">
         <v>123</v>
       </c>
@@ -4795,7 +4939,7 @@
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="21"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="5" t="s">
         <v>124</v>
       </c>
@@ -4812,7 +4956,7 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="21"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="5" t="s">
         <v>125</v>
       </c>
@@ -4829,18 +4973,18 @@
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="22"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D143" s="5">
         <v>255</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -4870,10 +5014,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>130</v>
@@ -4888,9 +5032,9 @@
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="15"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>130</v>
@@ -4899,15 +5043,15 @@
         <v>32</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="15"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>130</v>
@@ -4916,15 +5060,15 @@
         <v>32</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="15"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>130</v>
@@ -4933,13 +5077,13 @@
         <v>32</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="15"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="5" t="s">
         <v>136</v>
       </c>
@@ -4958,7 +5102,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="15"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="5" t="s">
         <v>122</v>
       </c>
@@ -4975,7 +5119,7 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="15"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="5" t="s">
         <v>123</v>
       </c>
@@ -4992,7 +5136,7 @@
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="15"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="5" t="s">
         <v>124</v>
       </c>
@@ -5009,7 +5153,7 @@
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="15"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="5" t="s">
         <v>125</v>
       </c>
@@ -5026,18 +5170,18 @@
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="16"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D156" s="5">
         <v>255</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -5067,10 +5211,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>130</v>
@@ -5085,9 +5229,9 @@
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="15"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>130</v>
@@ -5096,15 +5240,15 @@
         <v>32</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="15"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>130</v>
@@ -5113,13 +5257,13 @@
         <v>32</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="15"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="5" t="s">
         <v>136</v>
       </c>
@@ -5138,7 +5282,7 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="15"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="5" t="s">
         <v>122</v>
       </c>
@@ -5155,7 +5299,7 @@
       <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="15"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="5" t="s">
         <v>123</v>
       </c>
@@ -5172,7 +5316,7 @@
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="15"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="5" t="s">
         <v>124</v>
       </c>
@@ -5189,7 +5333,7 @@
       <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="15"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="5" t="s">
         <v>125</v>
       </c>
@@ -5206,18 +5350,18 @@
       <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="16"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D168" s="5">
         <v>255</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -5247,10 +5391,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>130</v>
@@ -5265,9 +5409,9 @@
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="15"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>130</v>
@@ -5276,15 +5420,15 @@
         <v>32</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="15"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>130</v>
@@ -5293,30 +5437,30 @@
         <v>32</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="15"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D175" s="5">
+        <v>32</v>
+      </c>
+      <c r="E175" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D175" s="5">
-        <v>32</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="15"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="5" t="s">
         <v>136</v>
       </c>
@@ -5335,7 +5479,7 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="15"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="5" t="s">
         <v>122</v>
       </c>
@@ -5352,7 +5496,7 @@
       <c r="G177" s="5"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="15"/>
+      <c r="A178" s="17"/>
       <c r="B178" s="5" t="s">
         <v>123</v>
       </c>
@@ -5369,7 +5513,7 @@
       <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="15"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="5" t="s">
         <v>124</v>
       </c>
@@ -5386,7 +5530,7 @@
       <c r="G179" s="5"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="15"/>
+      <c r="A180" s="17"/>
       <c r="B180" s="5" t="s">
         <v>125</v>
       </c>
@@ -5403,18 +5547,18 @@
       <c r="G180" s="5"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="16"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D181" s="5">
         <v>255</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -5444,10 +5588,10 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>130</v>
@@ -5462,9 +5606,9 @@
       <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="15"/>
+      <c r="A186" s="17"/>
       <c r="B186" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>130</v>
@@ -5473,15 +5617,15 @@
         <v>32</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="15"/>
+      <c r="A187" s="17"/>
       <c r="B187" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>130</v>
@@ -5490,15 +5634,15 @@
         <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="15"/>
+      <c r="A188" s="17"/>
       <c r="B188" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>130</v>
@@ -5507,15 +5651,15 @@
         <v>32</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="15"/>
+      <c r="A189" s="17"/>
       <c r="B189" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>130</v>
@@ -5524,15 +5668,15 @@
         <v>32</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="15"/>
+      <c r="A190" s="17"/>
       <c r="B190" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>130</v>
@@ -5541,15 +5685,15 @@
         <v>255</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="15"/>
+      <c r="A191" s="17"/>
       <c r="B191" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>130</v>
@@ -5558,15 +5702,15 @@
         <v>18</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="15"/>
+      <c r="A192" s="17"/>
       <c r="B192" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>130</v>
@@ -5575,13 +5719,13 @@
         <v>30</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="15"/>
+      <c r="A193" s="17"/>
       <c r="B193" s="5" t="s">
         <v>136</v>
       </c>
@@ -5600,7 +5744,7 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="15"/>
+      <c r="A194" s="17"/>
       <c r="B194" s="5" t="s">
         <v>122</v>
       </c>
@@ -5617,7 +5761,7 @@
       <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="15"/>
+      <c r="A195" s="17"/>
       <c r="B195" s="5" t="s">
         <v>123</v>
       </c>
@@ -5634,7 +5778,7 @@
       <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="15"/>
+      <c r="A196" s="17"/>
       <c r="B196" s="5" t="s">
         <v>124</v>
       </c>
@@ -5651,7 +5795,7 @@
       <c r="G196" s="5"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="15"/>
+      <c r="A197" s="17"/>
       <c r="B197" s="5" t="s">
         <v>125</v>
       </c>
@@ -5668,18 +5812,18 @@
       <c r="G197" s="5"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="16"/>
+      <c r="A198" s="18"/>
       <c r="B198" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D198" s="5">
         <v>255</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -5709,10 +5853,10 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>130</v>
@@ -5727,9 +5871,9 @@
       <c r="G202" s="5"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="15"/>
+      <c r="A203" s="17"/>
       <c r="B203" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>130</v>
@@ -5738,15 +5882,15 @@
         <v>32</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="15"/>
+      <c r="A204" s="17"/>
       <c r="B204" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>130</v>
@@ -5755,15 +5899,15 @@
         <v>30</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="15"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>133</v>
@@ -5772,15 +5916,15 @@
         <v>6</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="15"/>
+      <c r="A206" s="17"/>
       <c r="B206" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>130</v>
@@ -5789,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
@@ -5797,7 +5941,7 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="15"/>
+      <c r="A207" s="17"/>
       <c r="B207" s="5" t="s">
         <v>136</v>
       </c>
@@ -5816,7 +5960,7 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="15"/>
+      <c r="A208" s="17"/>
       <c r="B208" s="5" t="s">
         <v>122</v>
       </c>
@@ -5833,7 +5977,7 @@
       <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="15"/>
+      <c r="A209" s="17"/>
       <c r="B209" s="5" t="s">
         <v>123</v>
       </c>
@@ -5850,7 +5994,7 @@
       <c r="G209" s="5"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="15"/>
+      <c r="A210" s="17"/>
       <c r="B210" s="5" t="s">
         <v>124</v>
       </c>
@@ -5867,7 +6011,7 @@
       <c r="G210" s="5"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="15"/>
+      <c r="A211" s="17"/>
       <c r="B211" s="5" t="s">
         <v>125</v>
       </c>
@@ -5884,18 +6028,18 @@
       <c r="G211" s="5"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="16"/>
+      <c r="A212" s="18"/>
       <c r="B212" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D212" s="5">
         <v>255</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -5925,10 +6069,10 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>130</v>
@@ -5943,9 +6087,9 @@
       <c r="G216" s="5"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="15"/>
+      <c r="A217" s="17"/>
       <c r="B217" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>130</v>
@@ -5954,64 +6098,64 @@
         <v>32</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="15"/>
+      <c r="A218" s="17"/>
       <c r="B218" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D218" s="5">
+        <v>32</v>
+      </c>
+      <c r="E218" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D218" s="5">
-        <v>32</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="15"/>
+      <c r="A219" s="17"/>
       <c r="B219" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D219" s="5">
+        <v>32</v>
+      </c>
+      <c r="E219" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D219" s="5">
-        <v>32</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="15"/>
+      <c r="A220" s="17"/>
       <c r="B220" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="D220" s="5">
         <v>6</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="15"/>
+      <c r="A221" s="17"/>
       <c r="B221" s="5" t="s">
         <v>136</v>
       </c>
@@ -6030,7 +6174,7 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="15"/>
+      <c r="A222" s="17"/>
       <c r="B222" s="5" t="s">
         <v>122</v>
       </c>
@@ -6047,7 +6191,7 @@
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="15"/>
+      <c r="A223" s="17"/>
       <c r="B223" s="5" t="s">
         <v>123</v>
       </c>
@@ -6064,7 +6208,7 @@
       <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="15"/>
+      <c r="A224" s="17"/>
       <c r="B224" s="5" t="s">
         <v>124</v>
       </c>
@@ -6081,7 +6225,7 @@
       <c r="G224" s="5"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="15"/>
+      <c r="A225" s="17"/>
       <c r="B225" s="5" t="s">
         <v>125</v>
       </c>
@@ -6098,18 +6242,18 @@
       <c r="G225" s="5"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="16"/>
+      <c r="A226" s="18"/>
       <c r="B226" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D226" s="5">
         <v>255</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -6139,7 +6283,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>170</v>
@@ -6157,102 +6301,102 @@
       <c r="G230" s="5"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="15"/>
+      <c r="A231" s="17"/>
       <c r="B231" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D231" s="5">
+        <v>32</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D231" s="5">
-        <v>32</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="15"/>
+      <c r="A232" s="17"/>
       <c r="B232" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D232" s="5">
         <v>30</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="15"/>
+      <c r="A233" s="17"/>
       <c r="B233" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D233" s="5">
         <v>255</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="15"/>
+      <c r="A234" s="17"/>
       <c r="B234" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D234" s="5">
         <v>2</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="15"/>
+      <c r="A235" s="17"/>
       <c r="B235" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D235" s="5">
         <v>2</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="15"/>
+      <c r="A236" s="17"/>
       <c r="B236" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>130</v>
@@ -6261,17 +6405,17 @@
         <v>32</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="15"/>
+      <c r="A237" s="17"/>
       <c r="B237" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>130</v>
@@ -6280,180 +6424,180 @@
         <v>32</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="15"/>
+      <c r="A238" s="17"/>
       <c r="B238" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D238" s="5">
         <v>6</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="15"/>
+      <c r="A239" s="17"/>
       <c r="B239" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D239" s="5">
         <v>6</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="15"/>
+      <c r="A240" s="17"/>
       <c r="B240" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D240" s="5">
         <v>6</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="15"/>
+      <c r="A241" s="17"/>
       <c r="B241" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D241" s="5">
         <v>3</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="17"/>
+      <c r="B242" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="15"/>
-      <c r="B242" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="D242" s="5">
         <v>6</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="15"/>
+      <c r="A243" s="17"/>
       <c r="B243" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D243" s="5">
         <v>6</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="15"/>
+      <c r="A244" s="17"/>
       <c r="B244" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D244" s="5">
         <v>2</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="15"/>
+      <c r="A245" s="17"/>
       <c r="B245" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D245" s="5">
         <v>2</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="15"/>
+      <c r="A246" s="17"/>
       <c r="B246" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D246" s="5">
         <v>6</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="15"/>
+      <c r="A247" s="17"/>
       <c r="B247" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>130</v>
@@ -6462,30 +6606,30 @@
         <v>32</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="15"/>
+      <c r="A248" s="17"/>
       <c r="B248" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D248" s="5">
         <v>6</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="15"/>
+      <c r="A249" s="17"/>
       <c r="B249" s="5" t="s">
         <v>136</v>
       </c>
@@ -6504,7 +6648,7 @@
       </c>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="15"/>
+      <c r="A250" s="17"/>
       <c r="B250" s="5" t="s">
         <v>122</v>
       </c>
@@ -6521,7 +6665,7 @@
       <c r="G250" s="5"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="15"/>
+      <c r="A251" s="17"/>
       <c r="B251" s="5" t="s">
         <v>123</v>
       </c>
@@ -6538,7 +6682,7 @@
       <c r="G251" s="5"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="15"/>
+      <c r="A252" s="17"/>
       <c r="B252" s="5" t="s">
         <v>124</v>
       </c>
@@ -6555,7 +6699,7 @@
       <c r="G252" s="5"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="15"/>
+      <c r="A253" s="17"/>
       <c r="B253" s="5" t="s">
         <v>125</v>
       </c>
@@ -6572,9 +6716,9 @@
       <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="16"/>
+      <c r="A254" s="18"/>
       <c r="B254" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>130</v>
@@ -6583,7 +6727,7 @@
         <v>255</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
@@ -6613,7 +6757,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>170</v>
@@ -6631,9 +6775,9 @@
       <c r="G258" s="5"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="15"/>
+      <c r="A259" s="17"/>
       <c r="B259" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>130</v>
@@ -6642,15 +6786,15 @@
         <v>32</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="15"/>
+      <c r="A260" s="17"/>
       <c r="B260" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>130</v>
@@ -6659,34 +6803,34 @@
         <v>30</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="15"/>
+      <c r="A261" s="17"/>
       <c r="B261" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D261" s="5">
         <v>6</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="15"/>
+      <c r="A262" s="17"/>
       <c r="B262" s="5" t="s">
         <v>122</v>
       </c>
@@ -6703,7 +6847,7 @@
       <c r="G262" s="5"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="15"/>
+      <c r="A263" s="17"/>
       <c r="B263" s="5" t="s">
         <v>123</v>
       </c>
@@ -6720,7 +6864,7 @@
       <c r="G263" s="5"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="15"/>
+      <c r="A264" s="17"/>
       <c r="B264" s="5" t="s">
         <v>124</v>
       </c>
@@ -6737,7 +6881,7 @@
       <c r="G264" s="5"/>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="15"/>
+      <c r="A265" s="17"/>
       <c r="B265" s="5" t="s">
         <v>125</v>
       </c>
@@ -6754,9 +6898,9 @@
       <c r="G265" s="5"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="16"/>
+      <c r="A266" s="18"/>
       <c r="B266" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>130</v>
@@ -6765,7 +6909,7 @@
         <v>255</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -6795,7 +6939,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>170</v>
@@ -6813,9 +6957,9 @@
       <c r="G270" s="5"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="15"/>
+      <c r="A271" s="17"/>
       <c r="B271" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>130</v>
@@ -6824,15 +6968,15 @@
         <v>32</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="15"/>
+      <c r="A272" s="17"/>
       <c r="B272" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>132</v>
@@ -6841,34 +6985,34 @@
         <v>2</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="15"/>
+      <c r="A273" s="17"/>
       <c r="B273" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D273" s="5">
+        <v>32</v>
+      </c>
+      <c r="E273" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D273" s="5">
-        <v>32</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="15"/>
+      <c r="A274" s="17"/>
       <c r="B274" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>132</v>
@@ -6877,13 +7021,13 @@
         <v>2</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="15"/>
+      <c r="A275" s="17"/>
       <c r="B275" s="5" t="s">
         <v>122</v>
       </c>
@@ -6900,7 +7044,7 @@
       <c r="G275" s="5"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="15"/>
+      <c r="A276" s="17"/>
       <c r="B276" s="5" t="s">
         <v>123</v>
       </c>
@@ -6917,7 +7061,7 @@
       <c r="G276" s="5"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="15"/>
+      <c r="A277" s="17"/>
       <c r="B277" s="5" t="s">
         <v>124</v>
       </c>
@@ -6934,7 +7078,7 @@
       <c r="G277" s="5"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="15"/>
+      <c r="A278" s="17"/>
       <c r="B278" s="5" t="s">
         <v>125</v>
       </c>
@@ -6951,9 +7095,9 @@
       <c r="G278" s="5"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="16"/>
+      <c r="A279" s="18"/>
       <c r="B279" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>130</v>
@@ -6962,7 +7106,7 @@
         <v>255</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
@@ -6992,7 +7136,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>170</v>
@@ -7010,26 +7154,26 @@
       <c r="G283" s="5"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="15"/>
+      <c r="A284" s="17"/>
       <c r="B284" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D284" s="5">
+        <v>32</v>
+      </c>
+      <c r="E284" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D284" s="5">
-        <v>32</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="15"/>
+      <c r="A285" s="17"/>
       <c r="B285" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>130</v>
@@ -7038,17 +7182,17 @@
         <v>30</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="15"/>
+      <c r="A286" s="17"/>
       <c r="B286" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>130</v>
@@ -7057,17 +7201,17 @@
         <v>255</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="15"/>
+      <c r="A287" s="17"/>
       <c r="B287" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>132</v>
@@ -7076,17 +7220,17 @@
         <v>2</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="15"/>
+      <c r="A288" s="17"/>
       <c r="B288" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>132</v>
@@ -7095,17 +7239,17 @@
         <v>2</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="15"/>
+      <c r="A289" s="17"/>
       <c r="B289" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>130</v>
@@ -7114,17 +7258,17 @@
         <v>32</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="15"/>
+      <c r="A290" s="17"/>
       <c r="B290" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>130</v>
@@ -7133,72 +7277,72 @@
         <v>32</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="15"/>
+      <c r="A291" s="17"/>
       <c r="B291" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D291" s="5">
         <v>6</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="15"/>
+      <c r="A292" s="17"/>
       <c r="B292" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D292" s="5">
         <v>6</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="15"/>
+      <c r="A293" s="17"/>
       <c r="B293" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D293" s="5">
         <v>6</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="15"/>
+      <c r="A294" s="17"/>
       <c r="B294" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>132</v>
@@ -7207,17 +7351,17 @@
         <v>3</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="15"/>
+      <c r="A295" s="17"/>
       <c r="B295" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>133</v>
@@ -7226,15 +7370,15 @@
         <v>6</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="15"/>
+      <c r="A296" s="17"/>
       <c r="B296" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>133</v>
@@ -7243,15 +7387,15 @@
         <v>6</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="15"/>
+      <c r="A297" s="17"/>
       <c r="B297" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>132</v>
@@ -7260,17 +7404,17 @@
         <v>2</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="15"/>
+      <c r="A298" s="17"/>
       <c r="B298" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>132</v>
@@ -7279,17 +7423,17 @@
         <v>2</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="15"/>
+      <c r="A299" s="17"/>
       <c r="B299" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>133</v>
@@ -7298,15 +7442,15 @@
         <v>6</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="15"/>
+      <c r="A300" s="17"/>
       <c r="B300" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>130</v>
@@ -7315,15 +7459,15 @@
         <v>32</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="15"/>
+      <c r="A301" s="17"/>
       <c r="B301" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>133</v>
@@ -7332,13 +7476,13 @@
         <v>6</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="15"/>
+      <c r="A302" s="17"/>
       <c r="B302" s="5" t="s">
         <v>136</v>
       </c>
@@ -7357,7 +7501,7 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="15"/>
+      <c r="A303" s="17"/>
       <c r="B303" s="5" t="s">
         <v>122</v>
       </c>
@@ -7374,7 +7518,7 @@
       <c r="G303" s="5"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="15"/>
+      <c r="A304" s="17"/>
       <c r="B304" s="5" t="s">
         <v>123</v>
       </c>
@@ -7391,7 +7535,7 @@
       <c r="G304" s="5"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="15"/>
+      <c r="A305" s="17"/>
       <c r="B305" s="5" t="s">
         <v>124</v>
       </c>
@@ -7408,7 +7552,7 @@
       <c r="G305" s="5"/>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="15"/>
+      <c r="A306" s="17"/>
       <c r="B306" s="5" t="s">
         <v>125</v>
       </c>
@@ -7425,9 +7569,9 @@
       <c r="G306" s="5"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="16"/>
+      <c r="A307" s="18"/>
       <c r="B307" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>130</v>
@@ -7466,7 +7610,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>170</v>
@@ -7484,9 +7628,9 @@
       <c r="G311" s="5"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="15"/>
+      <c r="A312" s="17"/>
       <c r="B312" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>130</v>
@@ -7495,15 +7639,15 @@
         <v>32</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="15"/>
+      <c r="A313" s="17"/>
       <c r="B313" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>130</v>
@@ -7512,34 +7656,34 @@
         <v>30</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="15"/>
+      <c r="A314" s="17"/>
       <c r="B314" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D314" s="5">
         <v>6</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="15"/>
+      <c r="A315" s="17"/>
       <c r="B315" s="5" t="s">
         <v>122</v>
       </c>
@@ -7556,7 +7700,7 @@
       <c r="G315" s="5"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="15"/>
+      <c r="A316" s="17"/>
       <c r="B316" s="5" t="s">
         <v>123</v>
       </c>
@@ -7573,7 +7717,7 @@
       <c r="G316" s="5"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="15"/>
+      <c r="A317" s="17"/>
       <c r="B317" s="5" t="s">
         <v>124</v>
       </c>
@@ -7590,7 +7734,7 @@
       <c r="G317" s="5"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="15"/>
+      <c r="A318" s="17"/>
       <c r="B318" s="5" t="s">
         <v>125</v>
       </c>
@@ -7607,9 +7751,9 @@
       <c r="G318" s="5"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="16"/>
+      <c r="A319" s="18"/>
       <c r="B319" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>130</v>
@@ -7648,7 +7792,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>170</v>
@@ -7666,26 +7810,26 @@
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="15"/>
+      <c r="A324" s="17"/>
       <c r="B324" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D324" s="5">
+        <v>32</v>
+      </c>
+      <c r="E324" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D324" s="5">
-        <v>32</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="15"/>
+      <c r="A325" s="17"/>
       <c r="B325" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>130</v>
@@ -7694,17 +7838,17 @@
         <v>30</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="15"/>
+      <c r="A326" s="17"/>
       <c r="B326" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>130</v>
@@ -7713,17 +7857,17 @@
         <v>255</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="15"/>
+      <c r="A327" s="17"/>
       <c r="B327" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>132</v>
@@ -7732,17 +7876,17 @@
         <v>2</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="15"/>
+      <c r="A328" s="17"/>
       <c r="B328" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>132</v>
@@ -7751,17 +7895,17 @@
         <v>2</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="15"/>
+      <c r="A329" s="17"/>
       <c r="B329" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>130</v>
@@ -7770,17 +7914,17 @@
         <v>32</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F329" s="5"/>
       <c r="G329" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="15"/>
+      <c r="A330" s="17"/>
       <c r="B330" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>130</v>
@@ -7789,72 +7933,72 @@
         <v>32</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="15"/>
+      <c r="A331" s="17"/>
       <c r="B331" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D331" s="5">
         <v>6</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="15"/>
+      <c r="A332" s="17"/>
       <c r="B332" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D332" s="5">
         <v>6</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="15"/>
+      <c r="A333" s="17"/>
       <c r="B333" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D333" s="5">
         <v>6</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="15"/>
+      <c r="A334" s="17"/>
       <c r="B334" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>132</v>
@@ -7863,17 +8007,17 @@
         <v>3</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="15"/>
+      <c r="A335" s="17"/>
       <c r="B335" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>133</v>
@@ -7882,15 +8026,15 @@
         <v>6</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="15"/>
+      <c r="A336" s="17"/>
       <c r="B336" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>133</v>
@@ -7899,15 +8043,15 @@
         <v>6</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="15"/>
+      <c r="A337" s="17"/>
       <c r="B337" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>132</v>
@@ -7916,17 +8060,17 @@
         <v>2</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="15"/>
+      <c r="A338" s="17"/>
       <c r="B338" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>132</v>
@@ -7935,17 +8079,17 @@
         <v>2</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="15"/>
+      <c r="A339" s="17"/>
       <c r="B339" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>133</v>
@@ -7954,15 +8098,15 @@
         <v>6</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="15"/>
+      <c r="A340" s="17"/>
       <c r="B340" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>130</v>
@@ -7971,15 +8115,15 @@
         <v>32</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
-      <c r="A341" s="15"/>
+      <c r="A341" s="17"/>
       <c r="B341" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>133</v>
@@ -7988,13 +8132,13 @@
         <v>6</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
-      <c r="A342" s="15"/>
+      <c r="A342" s="17"/>
       <c r="B342" s="5" t="s">
         <v>136</v>
       </c>
@@ -8013,7 +8157,7 @@
       </c>
     </row>
     <row r="343" spans="1:7">
-      <c r="A343" s="15"/>
+      <c r="A343" s="17"/>
       <c r="B343" s="5" t="s">
         <v>122</v>
       </c>
@@ -8030,7 +8174,7 @@
       <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="15"/>
+      <c r="A344" s="17"/>
       <c r="B344" s="5" t="s">
         <v>123</v>
       </c>
@@ -8047,7 +8191,7 @@
       <c r="G344" s="5"/>
     </row>
     <row r="345" spans="1:7">
-      <c r="A345" s="15"/>
+      <c r="A345" s="17"/>
       <c r="B345" s="5" t="s">
         <v>124</v>
       </c>
@@ -8064,7 +8208,7 @@
       <c r="G345" s="5"/>
     </row>
     <row r="346" spans="1:7">
-      <c r="A346" s="15"/>
+      <c r="A346" s="17"/>
       <c r="B346" s="5" t="s">
         <v>125</v>
       </c>
@@ -8081,9 +8225,9 @@
       <c r="G346" s="5"/>
     </row>
     <row r="347" spans="1:7">
-      <c r="A347" s="16"/>
+      <c r="A347" s="18"/>
       <c r="B347" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>130</v>
@@ -8122,7 +8266,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>170</v>
@@ -8140,9 +8284,9 @@
       <c r="G351" s="5"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="15"/>
+      <c r="A352" s="17"/>
       <c r="B352" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>130</v>
@@ -8151,15 +8295,15 @@
         <v>32</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" s="15"/>
+      <c r="A353" s="17"/>
       <c r="B353" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>130</v>
@@ -8168,34 +8312,34 @@
         <v>30</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F353" s="5"/>
       <c r="G353" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:7">
-      <c r="A354" s="15"/>
+      <c r="A354" s="17"/>
       <c r="B354" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D354" s="5">
         <v>6</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355" spans="1:7">
-      <c r="A355" s="15"/>
+      <c r="A355" s="17"/>
       <c r="B355" s="5" t="s">
         <v>122</v>
       </c>
@@ -8212,7 +8356,7 @@
       <c r="G355" s="5"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="15"/>
+      <c r="A356" s="17"/>
       <c r="B356" s="5" t="s">
         <v>123</v>
       </c>
@@ -8229,7 +8373,7 @@
       <c r="G356" s="5"/>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" s="15"/>
+      <c r="A357" s="17"/>
       <c r="B357" s="5" t="s">
         <v>124</v>
       </c>
@@ -8246,7 +8390,7 @@
       <c r="G357" s="5"/>
     </row>
     <row r="358" spans="1:7">
-      <c r="A358" s="15"/>
+      <c r="A358" s="17"/>
       <c r="B358" s="5" t="s">
         <v>125</v>
       </c>
@@ -8263,9 +8407,9 @@
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" s="16"/>
+      <c r="A359" s="18"/>
       <c r="B359" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>130</v>
@@ -8279,15 +8423,332 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D363" s="5">
+        <v>32</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="17"/>
+      <c r="B364" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D364" s="5">
+        <v>32</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="17"/>
+      <c r="B365" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D365" s="5">
+        <v>32</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="17"/>
+      <c r="B366" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D366" s="5">
+        <v>32</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="17"/>
+      <c r="B367" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D367" s="5">
+        <v>6</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="17"/>
+      <c r="B368" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D368" s="5">
+        <v>32</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="17"/>
+      <c r="B369" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D369" s="5">
+        <v>6</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="18"/>
+      <c r="B370" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D370" s="5">
+        <v>255</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D374" s="5">
+        <v>32</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="17"/>
+      <c r="B375" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D375" s="5">
+        <v>32</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="17"/>
+      <c r="B376" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D376" s="5">
+        <v>32</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="17"/>
+      <c r="B377" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D377" s="5">
+        <v>32</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="17"/>
+      <c r="B378" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D378" s="5">
+        <v>6</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="17"/>
+      <c r="B379" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D379" s="5">
+        <v>32</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="17"/>
+      <c r="B380" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D380" s="5">
+        <v>6</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="18"/>
+      <c r="B381" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D381" s="5">
+        <v>255</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A120:A130"/>
-    <mergeCell ref="A283:A307"/>
-    <mergeCell ref="A311:A319"/>
-    <mergeCell ref="A351:A359"/>
-    <mergeCell ref="A323:A347"/>
-    <mergeCell ref="A258:A266"/>
-    <mergeCell ref="A270:A279"/>
+  <mergeCells count="23">
+    <mergeCell ref="A363:A370"/>
+    <mergeCell ref="A374:A381"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A29"/>
     <mergeCell ref="A30:A34"/>
@@ -8298,10 +8759,17 @@
     <mergeCell ref="A172:A181"/>
     <mergeCell ref="A185:A198"/>
     <mergeCell ref="A202:A212"/>
-    <mergeCell ref="A230:A254"/>
     <mergeCell ref="A134:A143"/>
     <mergeCell ref="A53:A99"/>
     <mergeCell ref="A103:A116"/>
+    <mergeCell ref="A120:A130"/>
+    <mergeCell ref="A283:A307"/>
+    <mergeCell ref="A311:A319"/>
+    <mergeCell ref="A351:A359"/>
+    <mergeCell ref="A323:A347"/>
+    <mergeCell ref="A258:A266"/>
+    <mergeCell ref="A270:A279"/>
+    <mergeCell ref="A230:A254"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/jeesite4/NPDoc/数据库设计.xlsx
+++ b/jeesite4/NPDoc/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="484">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认，普通，支付等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待领取，正在确认，正在解决等。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,10 +968,6 @@
   </si>
   <si>
     <t>公司对应业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司业务类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1805,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_web_InvitationUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fr_web_problemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1874,14 +1862,129 @@
   </si>
   <si>
     <t>当任务结束了之后，从任务表删除，存放到这里，留存记录，任务在结束存放到历史表中的时候，主键要使用原来任务的主键，这样才能和原来的修改记录关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要独立的类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_InvitationUser
+被邀请人信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_investigation
+调查问题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_Answer
+调查问题答案表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司业务类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_subject
+科目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_SubjectChild
+科目子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子科目内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.任务发布，等待领取 1.任务已领取，正在协商 2.协商完成，正在解决 3.解决完成，等待支付 4.支付完成，待评价 5.评价完成，任务结束 6.发生意外 7.任务取消 8.任务继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderUpdateType
+任务修改类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布，被接受，取消任务关系，确认解决，支付，申请客服介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr_web_orderOperationType
+任务操作类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1917,8 +2020,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1964,6 +2082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,7 +2160,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2051,13 +2175,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,6 +2198,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2087,9 +2213,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2179,7 +2304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,9 +2336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2245,6 +2371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2420,11 +2547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N381"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2441,21 +2568,24 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
@@ -2474,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2496,25 +2626,25 @@
     <row r="5" spans="1:14" s="10" customFormat="1">
       <c r="A5" s="19"/>
       <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2530,13 +2660,13 @@
     <row r="7" spans="1:14">
       <c r="A7" s="19"/>
       <c r="B7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2552,13 +2682,13 @@
     <row r="8" spans="1:14">
       <c r="A8" s="19"/>
       <c r="B8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2574,10 +2704,10 @@
     <row r="9" spans="1:14">
       <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2596,13 +2726,13 @@
     <row r="10" spans="1:14">
       <c r="A10" s="19"/>
       <c r="B10" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2618,13 +2748,13 @@
     <row r="11" spans="1:14">
       <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
@@ -2643,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>31</v>
@@ -2652,10 +2782,10 @@
     <row r="13" spans="1:14">
       <c r="A13" s="19"/>
       <c r="B13" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -2674,10 +2804,10 @@
     <row r="14" spans="1:14">
       <c r="A14" s="19"/>
       <c r="B14" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -2696,13 +2826,13 @@
     <row r="15" spans="1:14">
       <c r="A15" s="19"/>
       <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2721,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -2743,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -2764,10 +2894,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2786,13 +2916,13 @@
     <row r="19" spans="1:14">
       <c r="A19" s="20"/>
       <c r="B19" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2807,11 +2937,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="20"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>37</v>
@@ -2838,11 +2968,11 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="20"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -2860,14 +2990,14 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="20"/>
-      <c r="B23" s="4" t="s">
-        <v>413</v>
+      <c r="B23" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2882,14 +3012,14 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="20"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2904,14 +3034,14 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="20"/>
-      <c r="B25" s="4" t="s">
-        <v>417</v>
+      <c r="B25" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2930,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>40</v>
@@ -2952,10 +3082,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2974,7 +3104,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>41</v>
@@ -2996,10 +3126,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3016,14 +3146,14 @@
       <c r="A30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3038,14 +3168,14 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="21"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3064,13 +3194,13 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3079,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3101,7 +3231,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3119,14 +3249,14 @@
       <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3141,14 +3271,14 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="22"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3163,14 +3293,14 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="22"/>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3189,10 +3319,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3208,13 +3338,13 @@
     <row r="39" spans="1:14">
       <c r="A39" s="22"/>
       <c r="B39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3230,13 +3360,13 @@
     <row r="40" spans="1:14">
       <c r="A40" s="22"/>
       <c r="B40" s="5" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3255,10 +3385,10 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3273,14 +3403,14 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="22"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3296,13 +3426,13 @@
     <row r="43" spans="1:14">
       <c r="A43" s="22"/>
       <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3317,14 +3447,14 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="22"/>
-      <c r="B44" s="5" t="s">
-        <v>177</v>
+      <c r="B44" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3339,14 +3469,14 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="22"/>
-      <c r="B45" s="5" t="s">
-        <v>178</v>
+      <c r="B45" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3362,13 +3492,13 @@
     <row r="46" spans="1:14">
       <c r="A46" s="22"/>
       <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3387,10 +3517,10 @@
         <v>26</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3409,10 +3539,10 @@
         <v>27</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3427,1149 +3557,1149 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="4" customFormat="1">
       <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="F52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="4" t="s">
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A53" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1">
-      <c r="A54" s="24"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="5">
         <v>16</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54" s="5">
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1">
-      <c r="A55" s="24"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1">
-      <c r="A56" s="24"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1">
-      <c r="A57" s="24"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1">
-      <c r="A58" s="24"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="5">
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1">
-      <c r="A59" s="24"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="5">
         <v>18</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="5">
         <v>50</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1">
-      <c r="A61" s="24"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="5">
         <v>255</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1">
-      <c r="A62" s="24"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="5">
         <v>255</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" s="5">
         <v>20</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="5">
         <v>6</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1">
-      <c r="A65" s="24"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1">
-      <c r="A66" s="24"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="A67" s="24"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="5">
         <v>255</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1">
-      <c r="A68" s="24"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G68" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="A69" s="26"/>
+      <c r="B69" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1">
-      <c r="A70" s="24"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" s="5">
         <v>255</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1">
-      <c r="A72" s="24"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="5">
         <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" s="5">
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="A73" s="24"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="5">
         <v>30</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1">
-      <c r="A74" s="24"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="5">
         <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="A75" s="24"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1">
-      <c r="A76" s="24"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="5">
         <v>30</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1">
-      <c r="A77" s="24"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="5">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1">
-      <c r="A78" s="24"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1">
-      <c r="A79" s="24"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D79" s="5">
         <v>6</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1">
-      <c r="A80" s="24"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="5">
         <v>30</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="5" customFormat="1">
-      <c r="A81" s="24"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" s="5">
         <v>32</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1">
+      <c r="A82" s="26"/>
+      <c r="B82" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="5">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="5" t="s">
+      <c r="G82" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1">
+      <c r="A83" s="26"/>
+      <c r="B83" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" s="5">
-        <v>32</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G82" s="5" t="s">
+      <c r="C83" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="5">
+        <v>32</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="5" t="s">
+    <row r="84" spans="1:7" s="5" customFormat="1">
+      <c r="A84" s="26"/>
+      <c r="B84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D83" s="5">
-        <v>32</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" s="5" t="s">
+      <c r="D84" s="5">
+        <v>32</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="5" customFormat="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="5" t="s">
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="A85" s="26"/>
+      <c r="B85" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="5">
+        <v>32</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1">
+      <c r="A86" s="26"/>
+      <c r="B86" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D84" s="5">
-        <v>32</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="5">
-        <v>32</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" s="5" t="s">
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="5" customFormat="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="5" t="s">
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="A87" s="26"/>
+      <c r="B87" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D86" s="5">
-        <v>32</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="D87" s="5">
+        <v>32</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="5" t="s">
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="A88" s="26"/>
+      <c r="B88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="5">
+        <v>32</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1">
+      <c r="A89" s="26"/>
+      <c r="B89" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D87" s="5">
-        <v>32</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="5" customFormat="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="5">
-        <v>32</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G88" s="5" t="s">
+      <c r="D89" s="5">
+        <v>32</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" s="5" customFormat="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="5" t="s">
+      <c r="G89" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1">
+      <c r="A90" s="26"/>
+      <c r="B90" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D89" s="5">
-        <v>32</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="5" customFormat="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1">
+      <c r="A91" s="26"/>
+      <c r="B91" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="5" customFormat="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="5">
+        <v>32</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D91" s="5">
-        <v>32</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="G91" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1">
-      <c r="A92" s="24"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="5">
         <v>255</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1">
-      <c r="A93" s="24"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" s="5">
         <v>255</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1">
-      <c r="A94" s="24"/>
+      <c r="A94" s="26"/>
       <c r="B94" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="5">
         <v>2</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1">
-      <c r="A95" s="24"/>
+      <c r="A95" s="26"/>
       <c r="B95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="5">
+        <v>32</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1">
+      <c r="A96" s="26"/>
+      <c r="B96" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="5">
-        <v>32</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="5">
         <v>6</v>
       </c>
       <c r="E96" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1">
+      <c r="A97" s="26"/>
+      <c r="B97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="5">
+        <v>32</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="5" customFormat="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="5" t="s">
+    <row r="98" spans="1:7" s="5" customFormat="1">
+      <c r="A98" s="26"/>
+      <c r="B98" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="5">
-        <v>32</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1">
-      <c r="A98" s="24"/>
-      <c r="B98" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98" s="5">
         <v>6</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="25"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D99" s="5">
         <v>255</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1">
       <c r="A102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="F102" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>269</v>
+      <c r="A103" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" s="5">
         <v>32</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="15"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="5">
+        <v>32</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="5">
-        <v>32</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="15"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D105" s="5">
         <v>50</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="15"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D106" s="5">
         <v>32</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="15"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107" s="5">
         <v>50</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="15"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" s="5">
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="15"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="5">
+        <v>32</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" s="5">
-        <v>32</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="15"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="D110" s="5">
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="15"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="5">
         <v>2</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="15"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" s="5">
         <v>32</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="15"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="5">
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="15"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" s="5">
         <v>32</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="15"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D115" s="5">
         <v>6</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="16"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D116" s="5">
         <v>255</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -4579,211 +4709,211 @@
         <v>0</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="F119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>270</v>
+      <c r="A120" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" s="5">
         <v>32</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="15"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" s="5">
         <v>32</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="15"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D122" s="5">
         <v>30</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="15"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D123" s="5">
         <v>255</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="15"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D124" s="5">
         <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="15"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" s="5">
         <v>2</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="15"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="5">
         <v>32</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="15"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D127" s="5">
         <v>6</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="15"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" s="5">
         <v>32</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="15"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" s="5">
         <v>6</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="16"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D130" s="5">
         <v>255</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -4793,198 +4923,198 @@
         <v>0</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="F133" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="14" t="s">
-        <v>276</v>
+      <c r="A134" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="5">
         <v>32</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="15"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D135" s="5">
         <v>32</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="15"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D136" s="5">
         <v>32</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="15"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D137" s="5">
         <v>32</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="15"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D138" s="5">
         <v>2</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="15"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D139" s="5">
         <v>32</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="15"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="5">
         <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="15"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D141" s="5">
         <v>32</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="15"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D142" s="5">
         <v>6</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="16"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D143" s="5">
         <v>255</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -4994,39 +5124,39 @@
         <v>0</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="F146" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="14" t="s">
-        <v>283</v>
+      <c r="A147" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" s="5">
         <v>32</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -5034,16 +5164,16 @@
     <row r="148" spans="1:7">
       <c r="A148" s="17"/>
       <c r="B148" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" s="5">
         <v>32</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -5051,16 +5181,16 @@
     <row r="149" spans="1:7">
       <c r="A149" s="17"/>
       <c r="B149" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D149" s="5">
+        <v>32</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D149" s="5">
-        <v>32</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -5068,16 +5198,16 @@
     <row r="150" spans="1:7">
       <c r="A150" s="17"/>
       <c r="B150" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D150" s="5">
+        <v>32</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D150" s="5">
-        <v>32</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -5085,35 +5215,35 @@
     <row r="151" spans="1:7">
       <c r="A151" s="17"/>
       <c r="B151" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D151" s="5">
         <v>2</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="17"/>
       <c r="B152" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D152" s="5">
         <v>32</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -5121,16 +5251,16 @@
     <row r="153" spans="1:7">
       <c r="A153" s="17"/>
       <c r="B153" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D153" s="5">
         <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -5138,16 +5268,16 @@
     <row r="154" spans="1:7">
       <c r="A154" s="17"/>
       <c r="B154" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D154" s="5">
         <v>32</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -5155,16 +5285,16 @@
     <row r="155" spans="1:7">
       <c r="A155" s="17"/>
       <c r="B155" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D155" s="5">
         <v>6</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -5172,16 +5302,16 @@
     <row r="156" spans="1:7">
       <c r="A156" s="18"/>
       <c r="B156" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D156" s="5">
         <v>255</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -5191,39 +5321,39 @@
         <v>0</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="F159" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G159" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="14" t="s">
-        <v>294</v>
+      <c r="A160" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D160" s="5">
         <v>32</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -5231,16 +5361,16 @@
     <row r="161" spans="1:7">
       <c r="A161" s="17"/>
       <c r="B161" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" s="5">
         <v>32</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -5248,16 +5378,16 @@
     <row r="162" spans="1:7">
       <c r="A162" s="17"/>
       <c r="B162" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D162" s="5">
         <v>32</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -5265,35 +5395,35 @@
     <row r="163" spans="1:7">
       <c r="A163" s="17"/>
       <c r="B163" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="17"/>
       <c r="B164" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D164" s="5">
         <v>32</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -5301,16 +5431,16 @@
     <row r="165" spans="1:7">
       <c r="A165" s="17"/>
       <c r="B165" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D165" s="5">
         <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -5318,16 +5448,16 @@
     <row r="166" spans="1:7">
       <c r="A166" s="17"/>
       <c r="B166" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D166" s="5">
         <v>32</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -5335,16 +5465,16 @@
     <row r="167" spans="1:7">
       <c r="A167" s="17"/>
       <c r="B167" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D167" s="5">
         <v>6</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -5352,16 +5482,16 @@
     <row r="168" spans="1:7">
       <c r="A168" s="18"/>
       <c r="B168" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D168" s="5">
         <v>255</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -5371,39 +5501,39 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="F171" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="14" t="s">
-        <v>302</v>
+      <c r="A172" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D172" s="5">
         <v>32</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -5411,16 +5541,16 @@
     <row r="173" spans="1:7">
       <c r="A173" s="17"/>
       <c r="B173" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D173" s="5">
         <v>32</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -5428,16 +5558,16 @@
     <row r="174" spans="1:7">
       <c r="A174" s="17"/>
       <c r="B174" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D174" s="5">
         <v>32</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -5445,16 +5575,16 @@
     <row r="175" spans="1:7">
       <c r="A175" s="17"/>
       <c r="B175" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D175" s="5">
         <v>32</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -5462,35 +5592,35 @@
     <row r="176" spans="1:7">
       <c r="A176" s="17"/>
       <c r="B176" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D176" s="5">
         <v>2</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="17"/>
       <c r="B177" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D177" s="5">
         <v>32</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -5498,16 +5628,16 @@
     <row r="178" spans="1:7">
       <c r="A178" s="17"/>
       <c r="B178" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D178" s="5">
         <v>6</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -5515,16 +5645,16 @@
     <row r="179" spans="1:7">
       <c r="A179" s="17"/>
       <c r="B179" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D179" s="5">
         <v>32</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -5532,16 +5662,16 @@
     <row r="180" spans="1:7">
       <c r="A180" s="17"/>
       <c r="B180" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D180" s="5">
         <v>6</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -5549,16 +5679,16 @@
     <row r="181" spans="1:7">
       <c r="A181" s="18"/>
       <c r="B181" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D181" s="5">
         <v>255</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -5568,39 +5698,39 @@
         <v>0</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="F184" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="14" t="s">
-        <v>398</v>
+      <c r="A185" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D185" s="5">
         <v>32</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -5608,16 +5738,16 @@
     <row r="186" spans="1:7">
       <c r="A186" s="17"/>
       <c r="B186" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D186" s="5">
         <v>32</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -5625,16 +5755,16 @@
     <row r="187" spans="1:7">
       <c r="A187" s="17"/>
       <c r="B187" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D187" s="5">
         <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -5642,16 +5772,16 @@
     <row r="188" spans="1:7">
       <c r="A188" s="17"/>
       <c r="B188" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D188" s="5">
         <v>32</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -5659,16 +5789,16 @@
     <row r="189" spans="1:7">
       <c r="A189" s="17"/>
       <c r="B189" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D189" s="5">
         <v>32</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -5676,16 +5806,16 @@
     <row r="190" spans="1:7">
       <c r="A190" s="17"/>
       <c r="B190" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D190" s="5">
         <v>255</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -5693,16 +5823,16 @@
     <row r="191" spans="1:7">
       <c r="A191" s="17"/>
       <c r="B191" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D191" s="5">
         <v>18</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -5710,16 +5840,16 @@
     <row r="192" spans="1:7">
       <c r="A192" s="17"/>
       <c r="B192" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D192" s="5">
         <v>30</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -5727,35 +5857,35 @@
     <row r="193" spans="1:7">
       <c r="A193" s="17"/>
       <c r="B193" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D193" s="5">
         <v>2</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="17"/>
       <c r="B194" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D194" s="5">
         <v>32</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -5763,16 +5893,16 @@
     <row r="195" spans="1:7">
       <c r="A195" s="17"/>
       <c r="B195" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D195" s="5">
         <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -5780,16 +5910,16 @@
     <row r="196" spans="1:7">
       <c r="A196" s="17"/>
       <c r="B196" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D196" s="5">
         <v>32</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -5797,16 +5927,16 @@
     <row r="197" spans="1:7">
       <c r="A197" s="17"/>
       <c r="B197" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D197" s="5">
         <v>6</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -5814,16 +5944,16 @@
     <row r="198" spans="1:7">
       <c r="A198" s="18"/>
       <c r="B198" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D198" s="5">
         <v>255</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -5833,39 +5963,39 @@
         <v>0</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E201" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="F201" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="14" t="s">
-        <v>334</v>
+      <c r="A202" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D202" s="5">
         <v>32</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -5873,16 +6003,16 @@
     <row r="203" spans="1:7">
       <c r="A203" s="17"/>
       <c r="B203" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D203" s="5">
         <v>32</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
@@ -5890,16 +6020,16 @@
     <row r="204" spans="1:7">
       <c r="A204" s="17"/>
       <c r="B204" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D204" s="5">
         <v>30</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -5907,16 +6037,16 @@
     <row r="205" spans="1:7">
       <c r="A205" s="17"/>
       <c r="B205" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D205" s="5">
         <v>6</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -5924,54 +6054,54 @@
     <row r="206" spans="1:7">
       <c r="A206" s="17"/>
       <c r="B206" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D206" s="5">
         <v>32</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="17"/>
       <c r="B207" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D207" s="5">
         <v>2</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="17"/>
       <c r="B208" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D208" s="5">
         <v>32</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
@@ -5979,16 +6109,16 @@
     <row r="209" spans="1:7">
       <c r="A209" s="17"/>
       <c r="B209" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D209" s="5">
         <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
@@ -5996,16 +6126,16 @@
     <row r="210" spans="1:7">
       <c r="A210" s="17"/>
       <c r="B210" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D210" s="5">
         <v>32</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
@@ -6013,16 +6143,16 @@
     <row r="211" spans="1:7">
       <c r="A211" s="17"/>
       <c r="B211" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D211" s="5">
         <v>6</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -6030,16 +6160,16 @@
     <row r="212" spans="1:7">
       <c r="A212" s="18"/>
       <c r="B212" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D212" s="5">
         <v>255</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -6049,39 +6179,39 @@
         <v>0</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="F215" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="14" t="s">
-        <v>333</v>
+      <c r="A216" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D216" s="5">
         <v>32</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -6089,16 +6219,16 @@
     <row r="217" spans="1:7">
       <c r="A217" s="17"/>
       <c r="B217" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D217" s="5">
         <v>32</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -6106,16 +6236,16 @@
     <row r="218" spans="1:7">
       <c r="A218" s="17"/>
       <c r="B218" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D218" s="5">
         <v>32</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -6123,16 +6253,16 @@
     <row r="219" spans="1:7">
       <c r="A219" s="17"/>
       <c r="B219" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D219" s="5">
         <v>32</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -6140,16 +6270,16 @@
     <row r="220" spans="1:7">
       <c r="A220" s="17"/>
       <c r="B220" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D220" s="5">
         <v>6</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -6157,35 +6287,35 @@
     <row r="221" spans="1:7">
       <c r="A221" s="17"/>
       <c r="B221" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D221" s="5">
         <v>2</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="17"/>
       <c r="B222" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D222" s="5">
         <v>32</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -6193,16 +6323,16 @@
     <row r="223" spans="1:7">
       <c r="A223" s="17"/>
       <c r="B223" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D223" s="5">
         <v>6</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -6210,16 +6340,16 @@
     <row r="224" spans="1:7">
       <c r="A224" s="17"/>
       <c r="B224" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D224" s="5">
         <v>32</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -6227,16 +6357,16 @@
     <row r="225" spans="1:7">
       <c r="A225" s="17"/>
       <c r="B225" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D225" s="5">
         <v>6</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -6244,16 +6374,16 @@
     <row r="226" spans="1:7">
       <c r="A226" s="18"/>
       <c r="B226" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D226" s="5">
         <v>255</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -6263,39 +6393,39 @@
         <v>0</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="F229" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G229" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="14" t="s">
-        <v>399</v>
+      <c r="A230" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D230" s="5">
         <v>32</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -6303,16 +6433,16 @@
     <row r="231" spans="1:7">
       <c r="A231" s="17"/>
       <c r="B231" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D231" s="5">
+        <v>32</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D231" s="5">
-        <v>32</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -6320,111 +6450,111 @@
     <row r="232" spans="1:7">
       <c r="A232" s="17"/>
       <c r="B232" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D232" s="5">
         <v>30</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="17"/>
       <c r="B233" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D233" s="5">
         <v>255</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="17"/>
       <c r="B234" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D234" s="5">
         <v>2</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="17"/>
       <c r="B235" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D235" s="5">
         <v>2</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="17"/>
       <c r="B236" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D236" s="5">
         <v>32</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="17"/>
       <c r="B237" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D237" s="5">
         <v>32</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
@@ -6432,92 +6562,92 @@
     <row r="238" spans="1:7">
       <c r="A238" s="17"/>
       <c r="B238" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D238" s="5">
         <v>6</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="17"/>
       <c r="B239" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D239" s="5">
         <v>6</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="17"/>
       <c r="B240" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D240" s="5">
         <v>6</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="17"/>
       <c r="B241" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D241" s="5">
         <v>3</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="17"/>
       <c r="B242" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D242" s="5">
         <v>6</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -6525,16 +6655,16 @@
     <row r="243" spans="1:7">
       <c r="A243" s="17"/>
       <c r="B243" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D243" s="5">
         <v>6</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
@@ -6542,54 +6672,54 @@
     <row r="244" spans="1:7">
       <c r="A244" s="17"/>
       <c r="B244" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D244" s="5">
         <v>2</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="17"/>
       <c r="B245" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D245" s="5">
         <v>2</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="17"/>
       <c r="B246" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D246" s="5">
         <v>6</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -6597,16 +6727,16 @@
     <row r="247" spans="1:7">
       <c r="A247" s="17"/>
       <c r="B247" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D247" s="5">
         <v>32</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -6614,16 +6744,16 @@
     <row r="248" spans="1:7">
       <c r="A248" s="17"/>
       <c r="B248" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D248" s="5">
         <v>6</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -6631,35 +6761,35 @@
     <row r="249" spans="1:7">
       <c r="A249" s="17"/>
       <c r="B249" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D249" s="5">
         <v>2</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="17"/>
       <c r="B250" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D250" s="5">
         <v>32</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
@@ -6667,16 +6797,16 @@
     <row r="251" spans="1:7">
       <c r="A251" s="17"/>
       <c r="B251" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D251" s="5">
         <v>6</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
@@ -6684,16 +6814,16 @@
     <row r="252" spans="1:7">
       <c r="A252" s="17"/>
       <c r="B252" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D252" s="5">
         <v>32</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -6701,16 +6831,16 @@
     <row r="253" spans="1:7">
       <c r="A253" s="17"/>
       <c r="B253" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D253" s="5">
         <v>6</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
@@ -6718,16 +6848,16 @@
     <row r="254" spans="1:7">
       <c r="A254" s="18"/>
       <c r="B254" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D254" s="5">
         <v>255</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
@@ -6737,39 +6867,39 @@
         <v>0</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E257" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="F257" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G257" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="14" t="s">
-        <v>403</v>
+      <c r="A258" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D258" s="5">
         <v>32</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
@@ -6777,16 +6907,16 @@
     <row r="259" spans="1:7">
       <c r="A259" s="17"/>
       <c r="B259" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D259" s="5">
         <v>32</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
@@ -6794,54 +6924,54 @@
     <row r="260" spans="1:7">
       <c r="A260" s="17"/>
       <c r="B260" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D260" s="5">
         <v>30</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="17"/>
       <c r="B261" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="D261" s="5">
         <v>6</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="17"/>
       <c r="B262" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D262" s="5">
         <v>32</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
@@ -6849,16 +6979,16 @@
     <row r="263" spans="1:7">
       <c r="A263" s="17"/>
       <c r="B263" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D263" s="5">
         <v>6</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -6866,16 +6996,16 @@
     <row r="264" spans="1:7">
       <c r="A264" s="17"/>
       <c r="B264" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D264" s="5">
         <v>32</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -6883,16 +7013,16 @@
     <row r="265" spans="1:7">
       <c r="A265" s="17"/>
       <c r="B265" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D265" s="5">
         <v>6</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -6900,16 +7030,16 @@
     <row r="266" spans="1:7">
       <c r="A266" s="18"/>
       <c r="B266" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D266" s="5">
         <v>255</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -6919,39 +7049,39 @@
         <v>0</v>
       </c>
       <c r="B269" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="F269" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G269" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="14" t="s">
-        <v>412</v>
+      <c r="A270" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D270" s="5">
         <v>32</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
@@ -6959,16 +7089,16 @@
     <row r="271" spans="1:7">
       <c r="A271" s="17"/>
       <c r="B271" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D271" s="5">
         <v>32</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
@@ -6976,35 +7106,35 @@
     <row r="272" spans="1:7">
       <c r="A272" s="17"/>
       <c r="B272" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D272" s="5">
         <v>2</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="17"/>
       <c r="B273" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D273" s="5">
         <v>32</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
@@ -7012,16 +7142,16 @@
     <row r="274" spans="1:7">
       <c r="A274" s="17"/>
       <c r="B274" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D274" s="5">
         <v>2</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -7029,16 +7159,16 @@
     <row r="275" spans="1:7">
       <c r="A275" s="17"/>
       <c r="B275" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D275" s="5">
         <v>32</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
@@ -7046,16 +7176,16 @@
     <row r="276" spans="1:7">
       <c r="A276" s="17"/>
       <c r="B276" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D276" s="5">
         <v>6</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
@@ -7063,16 +7193,16 @@
     <row r="277" spans="1:7">
       <c r="A277" s="17"/>
       <c r="B277" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D277" s="5">
         <v>32</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
@@ -7080,16 +7210,16 @@
     <row r="278" spans="1:7">
       <c r="A278" s="17"/>
       <c r="B278" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D278" s="5">
         <v>6</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
@@ -7097,16 +7227,16 @@
     <row r="279" spans="1:7">
       <c r="A279" s="18"/>
       <c r="B279" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D279" s="5">
         <v>255</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
@@ -7116,39 +7246,39 @@
         <v>0</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E282" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="F282" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G282" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="14" t="s">
-        <v>419</v>
+      <c r="A283" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D283" s="5">
         <v>32</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
@@ -7156,16 +7286,16 @@
     <row r="284" spans="1:7">
       <c r="A284" s="17"/>
       <c r="B284" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D284" s="5">
+        <v>32</v>
+      </c>
+      <c r="E284" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D284" s="5">
-        <v>32</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
@@ -7173,111 +7303,111 @@
     <row r="285" spans="1:7">
       <c r="A285" s="17"/>
       <c r="B285" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D285" s="5">
         <v>30</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="17"/>
       <c r="B286" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D286" s="5">
         <v>255</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="17"/>
       <c r="B287" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D287" s="5">
         <v>2</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="17"/>
       <c r="B288" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D288" s="5">
         <v>2</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="5" t="s">
-        <v>369</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="17"/>
       <c r="B289" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D289" s="5">
         <v>32</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="17"/>
       <c r="B290" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D290" s="5">
         <v>32</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -7285,92 +7415,92 @@
     <row r="291" spans="1:7">
       <c r="A291" s="17"/>
       <c r="B291" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D291" s="5">
         <v>6</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="17"/>
       <c r="B292" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D292" s="5">
         <v>6</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="17"/>
       <c r="B293" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D293" s="5">
         <v>6</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="17"/>
       <c r="B294" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D294" s="5">
         <v>3</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="17"/>
       <c r="B295" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D295" s="5">
         <v>6</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -7378,16 +7508,16 @@
     <row r="296" spans="1:7">
       <c r="A296" s="17"/>
       <c r="B296" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D296" s="5">
         <v>6</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -7395,54 +7525,54 @@
     <row r="297" spans="1:7">
       <c r="A297" s="17"/>
       <c r="B297" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D297" s="5">
         <v>2</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="17"/>
       <c r="B298" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D298" s="5">
         <v>2</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="17"/>
       <c r="B299" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D299" s="5">
         <v>6</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -7450,16 +7580,16 @@
     <row r="300" spans="1:7">
       <c r="A300" s="17"/>
       <c r="B300" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D300" s="5">
         <v>32</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -7467,16 +7597,16 @@
     <row r="301" spans="1:7">
       <c r="A301" s="17"/>
       <c r="B301" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D301" s="5">
         <v>6</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -7484,35 +7614,35 @@
     <row r="302" spans="1:7">
       <c r="A302" s="17"/>
       <c r="B302" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D302" s="5">
         <v>2</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="17"/>
       <c r="B303" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D303" s="5">
         <v>32</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -7520,16 +7650,16 @@
     <row r="304" spans="1:7">
       <c r="A304" s="17"/>
       <c r="B304" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D304" s="5">
         <v>6</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -7537,16 +7667,16 @@
     <row r="305" spans="1:7">
       <c r="A305" s="17"/>
       <c r="B305" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D305" s="5">
         <v>32</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -7554,16 +7684,16 @@
     <row r="306" spans="1:7">
       <c r="A306" s="17"/>
       <c r="B306" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D306" s="5">
         <v>6</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -7571,16 +7701,16 @@
     <row r="307" spans="1:7">
       <c r="A307" s="18"/>
       <c r="B307" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D307" s="5">
         <v>255</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -7590,39 +7720,39 @@
         <v>0</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E310" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="F310" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G310" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D310" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F310" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G310" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="14" t="s">
-        <v>421</v>
+      <c r="A311" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D311" s="5">
         <v>32</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -7630,16 +7760,16 @@
     <row r="312" spans="1:7">
       <c r="A312" s="17"/>
       <c r="B312" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D312" s="5">
         <v>32</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -7647,54 +7777,54 @@
     <row r="313" spans="1:7">
       <c r="A313" s="17"/>
       <c r="B313" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D313" s="5">
         <v>30</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="17"/>
       <c r="B314" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D314" s="5">
         <v>6</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="17"/>
       <c r="B315" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D315" s="5">
         <v>32</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
@@ -7702,16 +7832,16 @@
     <row r="316" spans="1:7">
       <c r="A316" s="17"/>
       <c r="B316" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D316" s="5">
         <v>6</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
@@ -7719,16 +7849,16 @@
     <row r="317" spans="1:7">
       <c r="A317" s="17"/>
       <c r="B317" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D317" s="5">
         <v>32</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
@@ -7736,16 +7866,16 @@
     <row r="318" spans="1:7">
       <c r="A318" s="17"/>
       <c r="B318" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D318" s="5">
         <v>6</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
@@ -7753,16 +7883,16 @@
     <row r="319" spans="1:7">
       <c r="A319" s="18"/>
       <c r="B319" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D319" s="5">
         <v>255</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
@@ -7772,39 +7902,39 @@
         <v>0</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E322" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="F322" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G322" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="14" t="s">
-        <v>424</v>
+      <c r="A323" s="16" t="s">
+        <v>422</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D323" s="5">
         <v>32</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
@@ -7812,16 +7942,16 @@
     <row r="324" spans="1:7">
       <c r="A324" s="17"/>
       <c r="B324" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D324" s="5">
+        <v>32</v>
+      </c>
+      <c r="E324" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D324" s="5">
-        <v>32</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
@@ -7829,111 +7959,111 @@
     <row r="325" spans="1:7">
       <c r="A325" s="17"/>
       <c r="B325" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D325" s="5">
         <v>30</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="17"/>
       <c r="B326" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D326" s="5">
         <v>255</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="17"/>
       <c r="B327" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D327" s="5">
         <v>2</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="17"/>
       <c r="B328" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D328" s="5">
         <v>2</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="17"/>
       <c r="B329" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D329" s="5">
         <v>32</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F329" s="5"/>
       <c r="G329" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="17"/>
       <c r="B330" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D330" s="5">
         <v>32</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
@@ -7941,92 +8071,92 @@
     <row r="331" spans="1:7">
       <c r="A331" s="17"/>
       <c r="B331" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D331" s="5">
         <v>6</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="17"/>
       <c r="B332" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D332" s="5">
         <v>6</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="17"/>
       <c r="B333" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D333" s="5">
         <v>6</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="17"/>
       <c r="B334" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D334" s="5">
         <v>3</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="17"/>
       <c r="B335" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D335" s="5">
         <v>6</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
@@ -8034,16 +8164,16 @@
     <row r="336" spans="1:7">
       <c r="A336" s="17"/>
       <c r="B336" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D336" s="5">
         <v>6</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -8051,54 +8181,54 @@
     <row r="337" spans="1:7">
       <c r="A337" s="17"/>
       <c r="B337" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D337" s="5">
         <v>2</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="17"/>
       <c r="B338" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D338" s="5">
         <v>2</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="17"/>
       <c r="B339" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D339" s="5">
         <v>6</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
@@ -8106,16 +8236,16 @@
     <row r="340" spans="1:7">
       <c r="A340" s="17"/>
       <c r="B340" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D340" s="5">
         <v>32</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
@@ -8123,16 +8253,16 @@
     <row r="341" spans="1:7">
       <c r="A341" s="17"/>
       <c r="B341" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D341" s="5">
         <v>6</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -8140,35 +8270,35 @@
     <row r="342" spans="1:7">
       <c r="A342" s="17"/>
       <c r="B342" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D342" s="5">
         <v>2</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="17"/>
       <c r="B343" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D343" s="5">
         <v>32</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -8176,16 +8306,16 @@
     <row r="344" spans="1:7">
       <c r="A344" s="17"/>
       <c r="B344" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D344" s="5">
         <v>6</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -8193,16 +8323,16 @@
     <row r="345" spans="1:7">
       <c r="A345" s="17"/>
       <c r="B345" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D345" s="5">
         <v>32</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
@@ -8210,16 +8340,16 @@
     <row r="346" spans="1:7">
       <c r="A346" s="17"/>
       <c r="B346" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D346" s="5">
         <v>6</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -8227,16 +8357,16 @@
     <row r="347" spans="1:7">
       <c r="A347" s="18"/>
       <c r="B347" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D347" s="5">
         <v>255</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
@@ -8246,39 +8376,39 @@
         <v>0</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E350" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C350" s="4" t="s">
+      <c r="F350" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G350" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D350" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E350" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F350" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G350" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="351" spans="1:7">
-      <c r="A351" s="14" t="s">
-        <v>425</v>
+      <c r="A351" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D351" s="5">
         <v>32</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
@@ -8286,16 +8416,16 @@
     <row r="352" spans="1:7">
       <c r="A352" s="17"/>
       <c r="B352" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D352" s="5">
         <v>32</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
@@ -8303,71 +8433,73 @@
     <row r="353" spans="1:7">
       <c r="A353" s="17"/>
       <c r="B353" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D353" s="5">
         <v>30</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F353" s="5"/>
       <c r="G353" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="17"/>
       <c r="B354" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D354" s="5">
         <v>6</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="17"/>
       <c r="B355" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D355" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F355" s="5"/>
-      <c r="G355" s="5"/>
+      <c r="G355" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="17"/>
       <c r="B356" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D356" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -8375,16 +8507,16 @@
     <row r="357" spans="1:7">
       <c r="A357" s="17"/>
       <c r="B357" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D357" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
@@ -8392,92 +8524,92 @@
     <row r="358" spans="1:7">
       <c r="A358" s="17"/>
       <c r="B358" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D358" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" s="18"/>
+      <c r="A359" s="17"/>
       <c r="B359" s="5" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D359" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="362" spans="1:7">
-      <c r="A362" s="4" t="s">
+    <row r="360" spans="1:7">
+      <c r="A360" s="18"/>
+      <c r="B360" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D360" s="5">
+        <v>255</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B363" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E363" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C362" s="4" t="s">
+      <c r="F363" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G363" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D362" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F362" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G362" s="4" t="s">
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B364" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D363" s="5">
-        <v>32</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F363" s="5"/>
-      <c r="G363" s="5"/>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="17"/>
-      <c r="B364" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="C364" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D364" s="5">
         <v>32</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
@@ -8485,16 +8617,16 @@
     <row r="365" spans="1:7">
       <c r="A365" s="17"/>
       <c r="B365" s="5" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D365" s="5">
         <v>32</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
@@ -8502,16 +8634,16 @@
     <row r="366" spans="1:7">
       <c r="A366" s="17"/>
       <c r="B366" s="5" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D366" s="5">
         <v>32</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>126</v>
+        <v>436</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
@@ -8519,33 +8651,35 @@
     <row r="367" spans="1:7">
       <c r="A367" s="17"/>
       <c r="B367" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D367" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F367" s="5"/>
-      <c r="G367" s="5"/>
+      <c r="G367" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="17"/>
       <c r="B368" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D368" s="5">
         <v>32</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
@@ -8553,109 +8687,109 @@
     <row r="369" spans="1:7">
       <c r="A369" s="17"/>
       <c r="B369" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D369" s="5">
         <v>6</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="18"/>
+      <c r="A370" s="17"/>
       <c r="B370" s="5" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D370" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="373" spans="1:7">
-      <c r="A373" s="4" t="s">
+    <row r="371" spans="1:7">
+      <c r="A371" s="17"/>
+      <c r="B371" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D371" s="5">
+        <v>6</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="18"/>
+      <c r="B372" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D372" s="5">
+        <v>255</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B375" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E375" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="F375" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G375" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D373" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E373" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F373" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G373" s="4" t="s">
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B376" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
-      <c r="A374" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D374" s="5">
-        <v>32</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F374" s="5"/>
-      <c r="G374" s="5"/>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="A375" s="17"/>
-      <c r="B375" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D375" s="5">
-        <v>32</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F375" s="5"/>
-      <c r="G375" s="5"/>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="17"/>
-      <c r="B376" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C376" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D376" s="5">
         <v>32</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>441</v>
+        <v>92</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
@@ -8663,16 +8797,16 @@
     <row r="377" spans="1:7">
       <c r="A377" s="17"/>
       <c r="B377" s="5" t="s">
-        <v>122</v>
+        <v>437</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D377" s="5">
         <v>32</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
@@ -8680,16 +8814,16 @@
     <row r="378" spans="1:7">
       <c r="A378" s="17"/>
       <c r="B378" s="5" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D378" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>127</v>
+        <v>439</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
@@ -8697,58 +8831,1163 @@
     <row r="379" spans="1:7">
       <c r="A379" s="17"/>
       <c r="B379" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D379" s="5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F379" s="5"/>
-      <c r="G379" s="5"/>
+      <c r="G379" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="17"/>
       <c r="B380" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D380" s="5">
+        <v>32</v>
+      </c>
+      <c r="E380" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D380" s="5">
-        <v>6</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="18"/>
+      <c r="A381" s="17"/>
       <c r="B381" s="5" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D381" s="5">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="17"/>
+      <c r="B382" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D382" s="5">
+        <v>32</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="17"/>
+      <c r="B383" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D383" s="5">
+        <v>6</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="18"/>
+      <c r="B384" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D384" s="5">
+        <v>255</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D388" s="5">
+        <v>32</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="17"/>
+      <c r="B389" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D389" s="5">
+        <v>255</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="17"/>
+      <c r="B390" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D390" s="5">
+        <v>2</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="17"/>
+      <c r="B391" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D391" s="5">
+        <v>32</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="17"/>
+      <c r="B392" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D392" s="5">
+        <v>6</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="17"/>
+      <c r="B393" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D393" s="5">
+        <v>32</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="17"/>
+      <c r="B394" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D394" s="5">
+        <v>6</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="18"/>
+      <c r="B395" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D395" s="5">
+        <v>255</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G398" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D399" s="5">
+        <v>32</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="17"/>
+      <c r="B400" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D400" s="5">
+        <v>32</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="17"/>
+      <c r="B401" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D401" s="5">
+        <v>255</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="17"/>
+      <c r="B402" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D402" s="5">
+        <v>2</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="17"/>
+      <c r="B403" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D403" s="5">
+        <v>32</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="17"/>
+      <c r="B404" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D404" s="5">
+        <v>6</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="17"/>
+      <c r="B405" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D405" s="5">
+        <v>32</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="17"/>
+      <c r="B406" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D406" s="5">
+        <v>6</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="18"/>
+      <c r="B407" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D407" s="5">
+        <v>255</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G410" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D411" s="5">
+        <v>32</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="17"/>
+      <c r="B412" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D412" s="5">
+        <v>255</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="17"/>
+      <c r="B413" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D413" s="5">
+        <v>2</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="17"/>
+      <c r="B414" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D414" s="5">
+        <v>32</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="17"/>
+      <c r="B415" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D415" s="5">
+        <v>6</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="17"/>
+      <c r="B416" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D416" s="5">
+        <v>32</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="17"/>
+      <c r="B417" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D417" s="5">
+        <v>6</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="18"/>
+      <c r="B418" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D418" s="5">
+        <v>255</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F421" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G421" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D422" s="5">
+        <v>32</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="17"/>
+      <c r="B423" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D423" s="5">
+        <v>32</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="17"/>
+      <c r="B424" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D424" s="5">
+        <v>255</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="17"/>
+      <c r="B425" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D425" s="5">
+        <v>2</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="17"/>
+      <c r="B426" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D426" s="5">
+        <v>32</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="17"/>
+      <c r="B427" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D427" s="5">
+        <v>6</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="17"/>
+      <c r="B428" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D428" s="5">
+        <v>32</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="17"/>
+      <c r="B429" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D429" s="5">
+        <v>6</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="18"/>
+      <c r="B430" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D430" s="5">
+        <v>255</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F433" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G433" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D434" s="5">
+        <v>32</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="17"/>
+      <c r="B435" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D435" s="5">
+        <v>6</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="17"/>
+      <c r="B436" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D436" s="5">
+        <v>50</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="17"/>
+      <c r="B437" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D437" s="5">
+        <v>2</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F437" s="5"/>
+      <c r="G437" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="17"/>
+      <c r="B438" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D438" s="5">
+        <v>32</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="17"/>
+      <c r="B439" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D439" s="5">
+        <v>6</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="17"/>
+      <c r="B440" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D440" s="5">
+        <v>32</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="17"/>
+      <c r="B441" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D441" s="5">
+        <v>6</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="18"/>
+      <c r="B442" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D442" s="5">
+        <v>255</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E445" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F445" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G445" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D446" s="5">
+        <v>32</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="17"/>
+      <c r="B447" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D447" s="5">
+        <v>6</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="17"/>
+      <c r="B448" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D448" s="5">
+        <v>50</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="17"/>
+      <c r="B449" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D449" s="5">
+        <v>2</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="17"/>
+      <c r="B450" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D450" s="5">
+        <v>32</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="17"/>
+      <c r="B451" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D451" s="5">
+        <v>6</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="17"/>
+      <c r="B452" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D452" s="5">
+        <v>32</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="17"/>
+      <c r="B453" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D453" s="5">
+        <v>6</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="18"/>
+      <c r="B454" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D454" s="5">
+        <v>255</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A363:A370"/>
-    <mergeCell ref="A374:A381"/>
+  <mergeCells count="29">
+    <mergeCell ref="A446:A454"/>
+    <mergeCell ref="A388:A395"/>
+    <mergeCell ref="A399:A407"/>
+    <mergeCell ref="A411:A418"/>
+    <mergeCell ref="A422:A430"/>
+    <mergeCell ref="A434:A442"/>
+    <mergeCell ref="A364:A372"/>
+    <mergeCell ref="A376:A384"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A29"/>
     <mergeCell ref="A30:A34"/>
@@ -8763,13 +10002,13 @@
     <mergeCell ref="A53:A99"/>
     <mergeCell ref="A103:A116"/>
     <mergeCell ref="A120:A130"/>
+    <mergeCell ref="A230:A254"/>
     <mergeCell ref="A283:A307"/>
     <mergeCell ref="A311:A319"/>
-    <mergeCell ref="A351:A359"/>
+    <mergeCell ref="A351:A360"/>
     <mergeCell ref="A323:A347"/>
     <mergeCell ref="A258:A266"/>
     <mergeCell ref="A270:A279"/>
-    <mergeCell ref="A230:A254"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8785,6 +10024,15 @@
     <hyperlink ref="B16" location="Sheet1!A224" display="用户浏览记录"/>
     <hyperlink ref="B18" location="Sheet1!A252" display="任务表"/>
     <hyperlink ref="B19" location="Sheet1!A264" display="任务分项表"/>
+    <hyperlink ref="B35" location="Sheet1!B224" display="发生问题类型表"/>
+    <hyperlink ref="B42" location="Sheet1!B174" display="收藏类型表"/>
+    <hyperlink ref="B20" location="Sheet1!A270" display="任务操作记录表"/>
+    <hyperlink ref="B22" location="Sheet1!A283" display="任务修改记录表"/>
+    <hyperlink ref="B23" location="Sheet1!A311" display="任务分项修改记录表"/>
+    <hyperlink ref="B24" location="Sheet1!A323" display="历史任务表"/>
+    <hyperlink ref="B25" location="Sheet1!A351" display="历史任务分项表"/>
+    <hyperlink ref="B30" location="Sheet1!A364" display="邀请信息表"/>
+    <hyperlink ref="B31" location="Sheet1!A376" display="邀请用户表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
